--- a/dados_novaaba.xlsx
+++ b/dados_novaaba.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
@@ -55,18 +55,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -82,7 +150,7 @@
     <ext cx="5829300" cy="4114800"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -389,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +559,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -500,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14.07</v>
+        <v>13.4825</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -530,7 +598,7 @@
         <v>1.4</v>
       </c>
       <c r="N2" t="n">
-        <v>1071.428571428572</v>
+        <v>800</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -547,13 +615,13 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -561,70 +629,50 @@
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
-        <v>15</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -669,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1500.000025472763</v>
+        <v>1120.000090526166</v>
       </c>
       <c r="C2" t="n">
-        <v>-3176.271795118048</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7918.732116180061</v>
+        <v>5603.828161679123</v>
       </c>
     </row>
     <row r="3">
@@ -683,13 +731,13 @@
         <v>0.01570796326794897</v>
       </c>
       <c r="B3" t="n">
-        <v>1500.000096088201</v>
+        <v>1120.000076496371</v>
       </c>
       <c r="C3" t="n">
-        <v>-3437.455337448734</v>
+        <v>-20.94928524771964</v>
       </c>
       <c r="D3" t="n">
-        <v>7916.710593798121</v>
+        <v>5597.788716800495</v>
       </c>
     </row>
     <row r="4">
@@ -697,13 +745,13 @@
         <v>0.03141592653589793</v>
       </c>
       <c r="B4" t="n">
-        <v>1500.000000499492</v>
+        <v>1120.000068792192</v>
       </c>
       <c r="C4" t="n">
-        <v>-3698.207392504031</v>
+        <v>-41.81798849927238</v>
       </c>
       <c r="D4" t="n">
-        <v>7911.715464506287</v>
+        <v>5591.614490890811</v>
       </c>
     </row>
     <row r="5">
@@ -711,13 +759,13 @@
         <v>0.0471238898038469</v>
       </c>
       <c r="B5" t="n">
-        <v>1500.000001280578</v>
+        <v>1120.00006554596</v>
       </c>
       <c r="C5" t="n">
-        <v>-3958.659612053842</v>
+        <v>-62.61766159265489</v>
       </c>
       <c r="D5" t="n">
-        <v>7903.734545635167</v>
+        <v>5585.301257096259</v>
       </c>
     </row>
     <row r="6">
@@ -725,13 +773,13 @@
         <v>0.06283185307179587</v>
       </c>
       <c r="B6" t="n">
-        <v>1500.000002750255</v>
+        <v>1120.000064483961</v>
       </c>
       <c r="C6" t="n">
-        <v>-4218.945460744557</v>
+        <v>-83.35969718201679</v>
       </c>
       <c r="D6" t="n">
-        <v>7892.754212159278</v>
+        <v>5578.844531397095</v>
       </c>
     </row>
     <row r="7">
@@ -739,13 +787,13 @@
         <v>0.07853981633974483</v>
       </c>
       <c r="B7" t="n">
-        <v>1500.000005237363</v>
+        <v>1120.00006476871</v>
       </c>
       <c r="C7" t="n">
-        <v>-4479.197394199026</v>
+        <v>-104.0553550320335</v>
       </c>
       <c r="D7" t="n">
-        <v>7878.753653244657</v>
+        <v>5572.239538376836</v>
       </c>
     </row>
     <row r="8">
@@ -753,13 +801,13 @@
         <v>0.09424777960769379</v>
       </c>
       <c r="B8" t="n">
-        <v>1500.00000914283</v>
+        <v>1120.000066910656</v>
       </c>
       <c r="C8" t="n">
-        <v>-4739.547786423293</v>
+        <v>-124.7157876393019</v>
       </c>
       <c r="D8" t="n">
-        <v>7861.705985123652</v>
+        <v>5565.481197737951</v>
       </c>
     </row>
     <row r="9">
@@ -767,13 +815,13 @@
         <v>0.1099557428756427</v>
       </c>
       <c r="B9" t="n">
-        <v>1500.00001494436</v>
+        <v>1120.000069879344</v>
       </c>
       <c r="C9" t="n">
-        <v>-5000.12920289499</v>
+        <v>-145.3520654513036</v>
       </c>
       <c r="D9" t="n">
-        <v>7841.578137774762</v>
+        <v>5558.564141364024</v>
       </c>
     </row>
     <row r="10">
@@ -781,13 +829,13 @@
         <v>0.1256637061435917</v>
       </c>
       <c r="B10" t="n">
-        <v>1500.000024322022</v>
+        <v>1120.000073173751</v>
       </c>
       <c r="C10" t="n">
-        <v>-5261.074666505092</v>
+        <v>-165.9752014992597</v>
       </c>
       <c r="D10" t="n">
-        <v>7818.330700740888</v>
+        <v>5551.482672917995</v>
       </c>
     </row>
     <row r="11">
@@ -795,13 +843,13 @@
         <v>0.1413716694115407</v>
       </c>
       <c r="B11" t="n">
-        <v>1500.000059487556</v>
+        <v>1120.000076350006</v>
       </c>
       <c r="C11" t="n">
-        <v>-5522.51779563858</v>
+        <v>-186.5961758064506</v>
       </c>
       <c r="D11" t="n">
-        <v>7791.917515159631</v>
+        <v>5544.230754835902</v>
       </c>
     </row>
     <row r="12">
@@ -809,13 +857,13 @@
         <v>0.1570796326794896</v>
       </c>
       <c r="B12" t="n">
-        <v>1500.000000717185</v>
+        <v>1120.000079089011</v>
       </c>
       <c r="C12" t="n">
-        <v>-5784.594242469298</v>
+        <v>-207.225959595889</v>
       </c>
       <c r="D12" t="n">
-        <v>7762.287491837141</v>
+        <v>5536.801987683548</v>
       </c>
     </row>
     <row r="13">
@@ -823,13 +871,13 @@
         <v>0.1727875959474386</v>
       </c>
       <c r="B13" t="n">
-        <v>1500.000001123455</v>
+        <v>1120.000081403733</v>
       </c>
       <c r="C13" t="n">
-        <v>-6047.439018705298</v>
+        <v>-227.8755394198596</v>
       </c>
       <c r="D13" t="n">
-        <v>7729.37923741644</v>
+        <v>5529.18958627438</v>
       </c>
     </row>
     <row r="14">
@@ -837,13 +885,13 @@
         <v>0.1884955592153875</v>
       </c>
       <c r="B14" t="n">
-        <v>1500.000001450613</v>
+        <v>1120.000083355861</v>
       </c>
       <c r="C14" t="n">
-        <v>-6311.190243557212</v>
+        <v>-248.5559413740319</v>
       </c>
       <c r="D14" t="n">
-        <v>7693.126814087987</v>
+        <v>5521.386359552869</v>
       </c>
     </row>
     <row r="15">
@@ -851,13 +899,13 @@
         <v>0.2042035224833365</v>
       </c>
       <c r="B15" t="n">
-        <v>1500.000001682402</v>
+        <v>1120.000084924272</v>
       </c>
       <c r="C15" t="n">
-        <v>-6575.98750537567</v>
+        <v>-269.2782554775962</v>
       </c>
       <c r="D15" t="n">
-        <v>7653.456074446046</v>
+        <v>5513.38468680192</v>
       </c>
     </row>
     <row r="16">
@@ -865,13 +913,13 @@
         <v>0.2199114857512855</v>
       </c>
       <c r="B16" t="n">
-        <v>1500.000004570498</v>
+        <v>1120.000086401903</v>
       </c>
       <c r="C16" t="n">
-        <v>-6837.198289944845</v>
+        <v>-290.0536602942969</v>
       </c>
       <c r="D16" t="n">
-        <v>7611.355573060973</v>
+        <v>5505.17648571975</v>
       </c>
     </row>
     <row r="17">
@@ -879,13 +927,13 @@
         <v>0.2356194490192344</v>
       </c>
       <c r="B17" t="n">
-        <v>1500.000033812208</v>
+        <v>1120.00008892538</v>
       </c>
       <c r="C17" t="n">
-        <v>-7081.809982377193</v>
+        <v>-310.8934479317178</v>
       </c>
       <c r="D17" t="n">
-        <v>7569.979125307585</v>
+        <v>5496.753176653019</v>
       </c>
     </row>
     <row r="18">
@@ -893,13 +941,13 @@
         <v>0.2513274122871834</v>
       </c>
       <c r="B18" t="n">
-        <v>1500.00006533621</v>
+        <v>1120.000092231267</v>
       </c>
       <c r="C18" t="n">
-        <v>-7311.733412123236</v>
+        <v>-331.8090498511988</v>
       </c>
       <c r="D18" t="n">
-        <v>7529.36490640511</v>
+        <v>5488.105675777395</v>
       </c>
     </row>
     <row r="19">
@@ -907,13 +955,13 @@
         <v>0.2670353755551324</v>
       </c>
       <c r="B19" t="n">
-        <v>1500.000081197886</v>
+        <v>1120.000095989641</v>
       </c>
       <c r="C19" t="n">
-        <v>-7529.3311391795</v>
+        <v>-352.8120630103107</v>
       </c>
       <c r="D19" t="n">
-        <v>7489.345595254834</v>
+        <v>5479.224344890379</v>
       </c>
     </row>
     <row r="20">
@@ -921,13 +969,13 @@
         <v>0.2827433388230814</v>
       </c>
       <c r="B20" t="n">
-        <v>1500.000006027693</v>
+        <v>1120.000099953824</v>
       </c>
       <c r="C20" t="n">
-        <v>-7736.482999174125</v>
+        <v>-373.9142768894628</v>
       </c>
       <c r="D20" t="n">
-        <v>7449.778431707367</v>
+        <v>5470.098951584872</v>
       </c>
     </row>
     <row r="21">
@@ -935,13 +983,13 @@
         <v>0.2984513020910304</v>
       </c>
       <c r="B21" t="n">
-        <v>1500.000009383255</v>
+        <v>1120.000025229388</v>
       </c>
       <c r="C21" t="n">
-        <v>-7934.70259125184</v>
+        <v>-395.1277114003883</v>
       </c>
       <c r="D21" t="n">
-        <v>7410.536735047262</v>
+        <v>5460.719522820069</v>
       </c>
     </row>
     <row r="22">
@@ -949,13 +997,13 @@
         <v>0.3141592653589794</v>
       </c>
       <c r="B22" t="n">
-        <v>1500.00001232782</v>
+        <v>1120.000095170802</v>
       </c>
       <c r="C22" t="n">
-        <v>-8123.960178194518</v>
+        <v>-416.4645979386703</v>
       </c>
       <c r="D22" t="n">
-        <v>7371.443752248752</v>
+        <v>5451.071969648501</v>
       </c>
     </row>
     <row r="23">
@@ -963,13 +1011,13 @@
         <v>0.3298672286269284</v>
       </c>
       <c r="B23" t="n">
-        <v>1500.000004109387</v>
+        <v>1120.00008815739</v>
       </c>
       <c r="C23" t="n">
-        <v>-8300.58009860454</v>
+        <v>-437.9375038831839</v>
       </c>
       <c r="D23" t="n">
-        <v>7332.273010963103</v>
+        <v>5441.146532693559</v>
       </c>
     </row>
     <row r="24">
@@ -977,13 +1025,13 @@
         <v>0.3455751918948773</v>
       </c>
       <c r="B24" t="n">
-        <v>1500.000002730753</v>
+        <v>1120.000081497272</v>
       </c>
       <c r="C24" t="n">
-        <v>-8470.890204975592</v>
+        <v>-459.5592703607207</v>
       </c>
       <c r="D24" t="n">
-        <v>7293.305787019452</v>
+        <v>5430.929271527339</v>
       </c>
     </row>
     <row r="25">
@@ -991,13 +1039,13 @@
         <v>0.3612831551628263</v>
       </c>
       <c r="B25" t="n">
-        <v>1500.000084010279</v>
+        <v>1120.000075176499</v>
       </c>
       <c r="C25" t="n">
-        <v>-8635.662648012858</v>
+        <v>-481.343093077444</v>
       </c>
       <c r="D25" t="n">
-        <v>7254.452909391698</v>
+        <v>5420.406283530018</v>
       </c>
     </row>
     <row r="26">
@@ -1005,13 +1053,13 @@
         <v>0.3769911184307753</v>
       </c>
       <c r="B26" t="n">
-        <v>1500.000019043777</v>
+        <v>1120.000069183556</v>
       </c>
       <c r="C26" t="n">
-        <v>-8795.556884875121</v>
+        <v>-503.3025476216471</v>
       </c>
       <c r="D26" t="n">
-        <v>7215.63630651114</v>
+        <v>5409.562760893419</v>
       </c>
     </row>
     <row r="27">
@@ -1019,13 +1067,13 @@
         <v>0.3926990816987243</v>
       </c>
       <c r="B27" t="n">
-        <v>1500.000029301612</v>
+        <v>1120.000063508639</v>
       </c>
       <c r="C27" t="n">
-        <v>-8950.703742798898</v>
+        <v>-525.4516265186456</v>
       </c>
       <c r="D27" t="n">
-        <v>7176.948792109113</v>
+        <v>5398.382920702228</v>
       </c>
     </row>
     <row r="28">
@@ -1033,13 +1081,13 @@
         <v>0.4084070449666733</v>
       </c>
       <c r="B28" t="n">
-        <v>1500.000021286386</v>
+        <v>1120.000058174799</v>
       </c>
       <c r="C28" t="n">
-        <v>-9096.722300134203</v>
+        <v>-547.8047785034136</v>
       </c>
       <c r="D28" t="n">
-        <v>7140.310497149521</v>
+        <v>5386.849928027616</v>
       </c>
     </row>
     <row r="29">
@@ -1047,13 +1095,13 @@
         <v>0.4241150082346223</v>
       </c>
       <c r="B29" t="n">
-        <v>1500.000014981331</v>
+        <v>1120.000053358937</v>
       </c>
       <c r="C29" t="n">
-        <v>-9233.495415661946</v>
+        <v>-570.3769502514017</v>
       </c>
       <c r="D29" t="n">
-        <v>7106.053239788676</v>
+        <v>5374.94581065163</v>
       </c>
     </row>
     <row r="30">
@@ -1061,13 +1109,13 @@
         <v>0.4398229715025713</v>
       </c>
       <c r="B30" t="n">
-        <v>1500.000009956013</v>
+        <v>1120.000049006595</v>
       </c>
       <c r="C30" t="n">
-        <v>-9362.285658849061</v>
+        <v>-593.1836309462396</v>
       </c>
       <c r="D30" t="n">
-        <v>7073.92227146666</v>
+        <v>5362.651371405282</v>
       </c>
     </row>
     <row r="31">
@@ -1075,13 +1123,13 @@
         <v>0.4555309347705203</v>
       </c>
       <c r="B31" t="n">
-        <v>1500.000006140229</v>
+        <v>1120.000045069594</v>
       </c>
       <c r="C31" t="n">
-        <v>-9484.148214411829</v>
+        <v>-616.2408998001558</v>
       </c>
       <c r="D31" t="n">
-        <v>7043.697715543922</v>
+        <v>5349.946084344471</v>
       </c>
     </row>
     <row r="32">
@@ -1089,13 +1137,13 @@
         <v>0.4712388980384692</v>
       </c>
       <c r="B32" t="n">
-        <v>1500.000003416361</v>
+        <v>1120.000041450187</v>
       </c>
       <c r="C32" t="n">
-        <v>-9599.971483169915</v>
+        <v>-639.5654770108508</v>
       </c>
       <c r="D32" t="n">
-        <v>7015.188765305511</v>
+        <v>5336.807984170438</v>
       </c>
     </row>
     <row r="33">
@@ -1103,13 +1151,13 @@
         <v>0.4869468613064182</v>
       </c>
       <c r="B33" t="n">
-        <v>1500.000001630674</v>
+        <v>1120.000038093348</v>
       </c>
       <c r="C33" t="n">
-        <v>-9710.508689315218</v>
+        <v>-663.1747784504424</v>
       </c>
       <c r="D33" t="n">
-        <v>6988.22900033429</v>
+        <v>5323.213542697194</v>
       </c>
     </row>
     <row r="34">
@@ -1117,13 +1165,13 @@
         <v>0.5026548245743672</v>
       </c>
       <c r="B34" t="n">
-        <v>1500.000000602648</v>
+        <v>1120.000034960604</v>
       </c>
       <c r="C34" t="n">
-        <v>-9816.402708490386</v>
+        <v>-687.0869745446778</v>
       </c>
       <c r="D34" t="n">
-        <v>6962.672580118219</v>
+        <v>5309.13753408573</v>
       </c>
     </row>
     <row r="35">
@@ -1131,13 +1179,13 @@
         <v>0.5183627878423162</v>
       </c>
       <c r="B35" t="n">
-        <v>1500.000000132248</v>
+        <v>1120.0000320227</v>
       </c>
       <c r="C35" t="n">
-        <v>-9918.205733042883</v>
+        <v>-711.3210537749567</v>
       </c>
       <c r="D35" t="n">
-        <v>6938.391128870805</v>
+        <v>5294.552885782516</v>
       </c>
     </row>
     <row r="36">
@@ -1145,13 +1193,13 @@
         <v>0.5340707511102651</v>
       </c>
       <c r="B36" t="n">
-        <v>1500.000032012835</v>
+        <v>1120.000029257738</v>
       </c>
       <c r="C36" t="n">
-        <v>-10016.39458167046</v>
+        <v>-735.8968913137137</v>
       </c>
       <c r="D36" t="n">
-        <v>6915.270833826085</v>
+        <v>5279.430513612554</v>
       </c>
     </row>
     <row r="37">
@@ -1159,13 +1207,13 @@
         <v>0.5497787143782141</v>
       </c>
       <c r="B37" t="n">
-        <v>1500.000027960238</v>
+        <v>1120.000026649645</v>
       </c>
       <c r="C37" t="n">
-        <v>-10111.38492445925</v>
+        <v>-760.8353233618302</v>
       </c>
       <c r="D37" t="n">
-        <v>6893.211702438122</v>
+        <v>5263.739139146712</v>
       </c>
     </row>
     <row r="38">
@@ -1173,13 +1221,13 @@
         <v>0.5654866776461631</v>
       </c>
       <c r="B38" t="n">
-        <v>1500.000000009457</v>
+        <v>1120.000024186932</v>
       </c>
       <c r="C38" t="n">
-        <v>-10203.53931126265</v>
+        <v>-786.1582278236986</v>
       </c>
       <c r="D38" t="n">
-        <v>6872.123898775353</v>
+        <v>5247.445087132354</v>
       </c>
     </row>
     <row r="39">
@@ -1187,13 +1235,13 @@
         <v>0.5811946409141121</v>
       </c>
       <c r="B39" t="n">
-        <v>1500.000000027465</v>
+        <v>1120.000021952326</v>
       </c>
       <c r="C39" t="n">
-        <v>-10293.17600357593</v>
+        <v>-811.8886120122747</v>
       </c>
       <c r="D39" t="n">
-        <v>6851.926680895728</v>
+        <v>5230.512059421818</v>
       </c>
     </row>
     <row r="40">
@@ -1201,13 +1249,13 @@
         <v>0.5969026041820611</v>
       </c>
       <c r="B40" t="n">
-        <v>1500.000000040196</v>
+        <v>1120.000020056091</v>
       </c>
       <c r="C40" t="n">
-        <v>-10380.57724681959</v>
+        <v>-838.0507082401937</v>
       </c>
       <c r="D40" t="n">
-        <v>6832.548403632069</v>
+        <v>5212.900885328402</v>
       </c>
     </row>
     <row r="41">
@@ -1215,13 +1263,13 @@
         <v>0.6126105674500101</v>
       </c>
       <c r="B41" t="n">
-        <v>1500.000000033074</v>
+        <v>1120.000096853634</v>
       </c>
       <c r="C41" t="n">
-        <v>-10465.99360576516</v>
+        <v>-864.6700594423535</v>
       </c>
       <c r="D41" t="n">
-        <v>6813.924328204999</v>
+        <v>5194.568346756772</v>
       </c>
     </row>
     <row r="42">
@@ -1229,13 +1277,13 @@
         <v>0.6283185307179591</v>
       </c>
       <c r="B42" t="n">
-        <v>1500.000000008708</v>
+        <v>1120.000090773181</v>
       </c>
       <c r="C42" t="n">
-        <v>-10549.64897994049</v>
+        <v>-891.7737089979223</v>
       </c>
       <c r="D42" t="n">
-        <v>6795.99601345257</v>
+        <v>5175.470510041287</v>
       </c>
     </row>
     <row r="43">
@@ -1243,13 +1291,13 @@
         <v>0.6440264939859081</v>
       </c>
       <c r="B43" t="n">
-        <v>1500.000002746635</v>
+        <v>1120.000085658993</v>
       </c>
       <c r="C43" t="n">
-        <v>-10631.74447406816</v>
+        <v>-919.390210922792</v>
       </c>
       <c r="D43" t="n">
-        <v>6778.710516555651</v>
+        <v>5155.556820310057</v>
       </c>
     </row>
     <row r="44">
@@ -1257,13 +1305,13 @@
         <v>0.659734457253857</v>
       </c>
       <c r="B44" t="n">
-        <v>1500.000005188802</v>
+        <v>1120.000088532469</v>
       </c>
       <c r="C44" t="n">
-        <v>-10712.4617753835</v>
+        <v>-947.5357846420391</v>
       </c>
       <c r="D44" t="n">
-        <v>6762.019822646593</v>
+        <v>5134.785134633588</v>
       </c>
     </row>
     <row r="45">
@@ -1271,13 +1319,13 @@
         <v>0.675442420521806</v>
       </c>
       <c r="B45" t="n">
-        <v>1500.000053935681</v>
+        <v>1120.000021740615</v>
       </c>
       <c r="C45" t="n">
-        <v>-10791.9652568092</v>
+        <v>-975.5854938904446</v>
       </c>
       <c r="D45" t="n">
-        <v>6745.87969297539</v>
+        <v>5113.65811813678</v>
       </c>
     </row>
     <row r="46">
@@ -1285,13 +1333,13 @@
         <v>0.691150383789755</v>
       </c>
       <c r="B46" t="n">
-        <v>1500.000012440091</v>
+        <v>1120.000028865116</v>
       </c>
       <c r="C46" t="n">
-        <v>-10870.40707893152</v>
+        <v>-1003.228226231803</v>
       </c>
       <c r="D46" t="n">
-        <v>6730.251617450231</v>
+        <v>5092.44472891493</v>
       </c>
     </row>
     <row r="47">
@@ -1299,13 +1347,13 @@
         <v>0.706858347057704</v>
       </c>
       <c r="B47" t="n">
-        <v>1500.000047408836</v>
+        <v>1120.000037607642</v>
       </c>
       <c r="C47" t="n">
-        <v>-10947.9234195854</v>
+        <v>-1030.515049894395</v>
       </c>
       <c r="D47" t="n">
-        <v>6715.097279958698</v>
+        <v>5071.117053140074</v>
       </c>
     </row>
     <row r="48">
@@ -1313,13 +1361,13 @@
         <v>0.722566310325653</v>
       </c>
       <c r="B48" t="n">
-        <v>1500.000011042721</v>
+        <v>1120.00004816675</v>
       </c>
       <c r="C48" t="n">
-        <v>-11024.64350098009</v>
+        <v>-1057.494185984505</v>
       </c>
       <c r="D48" t="n">
-        <v>6700.38467406368</v>
+        <v>5049.645789278253</v>
       </c>
     </row>
     <row r="49">
@@ -1327,13 +1375,13 @@
         <v>0.738274273593602</v>
       </c>
       <c r="B49" t="n">
-        <v>1500.000030663715</v>
+        <v>1120.000060736157</v>
       </c>
       <c r="C49" t="n">
-        <v>-11100.68408556007</v>
+        <v>-1084.211415840074</v>
       </c>
       <c r="D49" t="n">
-        <v>6686.08158514526</v>
+        <v>5028.000898035545</v>
       </c>
     </row>
     <row r="50">
@@ -1341,13 +1389,13 @@
         <v>0.753982236861551</v>
       </c>
       <c r="B50" t="n">
-        <v>1500.000072729388</v>
+        <v>1120.000075499973</v>
       </c>
       <c r="C50" t="n">
-        <v>-11176.15590411221</v>
+        <v>-1110.710430817376</v>
       </c>
       <c r="D50" t="n">
-        <v>6672.159885138826</v>
+        <v>5006.151413740355</v>
       </c>
     </row>
     <row r="51">
@@ -1355,13 +1403,13 @@
         <v>0.7696902001295</v>
       </c>
       <c r="B51" t="n">
-        <v>1500.000018622233</v>
+        <v>1120.000092786695</v>
       </c>
       <c r="C51" t="n">
-        <v>-11251.16386264723</v>
+        <v>-1137.033150324864</v>
       </c>
       <c r="D51" t="n">
-        <v>6658.594486650311</v>
+        <v>4984.065243146681</v>
       </c>
     </row>
     <row r="52">
@@ -1369,13 +1417,13 @@
         <v>0.7853981633974489</v>
       </c>
       <c r="B52" t="n">
-        <v>1500.000039488415</v>
+        <v>1120.00002475898</v>
       </c>
       <c r="C52" t="n">
-        <v>-11325.80360416971</v>
+        <v>-1163.220114088681</v>
       </c>
       <c r="D52" t="n">
-        <v>6645.359182056411</v>
+        <v>4961.709897489428</v>
       </c>
     </row>
     <row r="53">
@@ -1383,13 +1431,13 @@
         <v>0.8011061266653979</v>
       </c>
       <c r="B53" t="n">
-        <v>1500.000076975781</v>
+        <v>1120.000036743811</v>
       </c>
       <c r="C53" t="n">
-        <v>-11400.16847771664</v>
+        <v>-1192.303887584728</v>
       </c>
       <c r="D53" t="n">
-        <v>6632.431905009542</v>
+        <v>4922.324537342331</v>
       </c>
     </row>
     <row r="54">
@@ -1397,13 +1445,13 @@
         <v>0.8168140899333469</v>
       </c>
       <c r="B54" t="n">
-        <v>1500.00002217187</v>
+        <v>1120.00004060814</v>
       </c>
       <c r="C54" t="n">
-        <v>-11474.34818685568</v>
+        <v>-1222.788647076499</v>
       </c>
       <c r="D54" t="n">
-        <v>6619.79267676338</v>
+        <v>4873.71309727996</v>
       </c>
     </row>
     <row r="55">
@@ -1411,13 +1459,13 @@
         <v>0.8325220532012959</v>
       </c>
       <c r="B55" t="n">
-        <v>1500.000040937548</v>
+        <v>1120.000046820662</v>
       </c>
       <c r="C55" t="n">
-        <v>-11548.42564831642</v>
+        <v>-1253.109757221428</v>
       </c>
       <c r="D55" t="n">
-        <v>6607.420030371912</v>
+        <v>4824.655443820682</v>
       </c>
     </row>
     <row r="56">
@@ -1425,13 +1473,13 @@
         <v>0.8482300164692449</v>
       </c>
       <c r="B56" t="n">
-        <v>1500.000071638421</v>
+        <v>1120.000053452563</v>
       </c>
       <c r="C56" t="n">
-        <v>-11622.48350171265</v>
+        <v>-1283.308998250361</v>
       </c>
       <c r="D56" t="n">
-        <v>6595.29615323401</v>
+        <v>4775.104468769921</v>
       </c>
     </row>
     <row r="57">
@@ -1439,13 +1487,13 @@
         <v>0.8639379797371939</v>
       </c>
       <c r="B57" t="n">
-        <v>1500.000022990315</v>
+        <v>1120.000062366152</v>
       </c>
       <c r="C57" t="n">
-        <v>-11696.60233722934</v>
+        <v>-1313.427215770167</v>
       </c>
       <c r="D57" t="n">
-        <v>6583.40468347541</v>
+        <v>4725.010998091876</v>
       </c>
     </row>
     <row r="58">
@@ -1453,13 +1501,13 @@
         <v>0.8796459430051429</v>
       </c>
       <c r="B58" t="n">
-        <v>1500.00003902187</v>
+        <v>1120.000072431083</v>
       </c>
       <c r="C58" t="n">
-        <v>-11770.85809220602</v>
+        <v>-1343.504565784317</v>
       </c>
       <c r="D58" t="n">
-        <v>6571.727811230288</v>
+        <v>4674.323568258223</v>
       </c>
     </row>
     <row r="59">
@@ -1467,13 +1515,13 @@
         <v>0.8953539062730919</v>
       </c>
       <c r="B59" t="n">
-        <v>1500.000063768747</v>
+        <v>1120.000083511204</v>
       </c>
       <c r="C59" t="n">
-        <v>-11845.32762723729</v>
+        <v>-1373.580733093598</v>
       </c>
       <c r="D59" t="n">
-        <v>6560.25075653318</v>
+        <v>4622.988074028768</v>
       </c>
     </row>
     <row r="60">
@@ -1481,13 +1529,13 @@
         <v>0.9110618695410408</v>
       </c>
       <c r="B60" t="n">
-        <v>1500.000022506695</v>
+        <v>1120.000095390975</v>
       </c>
       <c r="C60" t="n">
-        <v>-11920.08703488889</v>
+        <v>-1403.695152474291</v>
       </c>
       <c r="D60" t="n">
-        <v>6548.959772399809</v>
+        <v>4570.947427651492</v>
       </c>
     </row>
     <row r="61">
@@ -1495,13 +1543,13 @@
         <v>0.9267698328089898</v>
       </c>
       <c r="B61" t="n">
-        <v>1500.000036101525</v>
+        <v>1120.000023276916</v>
       </c>
       <c r="C61" t="n">
-        <v>-11995.209531254</v>
+        <v>-1433.88741325376</v>
       </c>
       <c r="D61" t="n">
-        <v>6537.839806518403</v>
+        <v>4518.141885725684</v>
       </c>
     </row>
     <row r="62">
@@ -1509,13 +1557,13 @@
         <v>0.9424777960769388</v>
       </c>
       <c r="B62" t="n">
-        <v>1500.000056329082</v>
+        <v>1120.000026646646</v>
       </c>
       <c r="C62" t="n">
-        <v>-12070.77012893157</v>
+        <v>-1464.196751334026</v>
       </c>
       <c r="D62" t="n">
-        <v>6526.878262589347</v>
+        <v>4464.505797918326</v>
       </c>
     </row>
     <row r="63">
@@ -1523,13 +1571,13 @@
         <v>0.9581857593448878</v>
       </c>
       <c r="B63" t="n">
-        <v>1500.000086171314</v>
+        <v>1120.000030213778</v>
       </c>
       <c r="C63" t="n">
-        <v>-12146.84342522868</v>
+        <v>-1494.663310532033</v>
       </c>
       <c r="D63" t="n">
-        <v>6516.0626133649</v>
+        <v>4409.97121658073</v>
       </c>
     </row>
     <row r="64">
@@ -1537,13 +1585,13 @@
         <v>0.9738937226128368</v>
       </c>
       <c r="B64" t="n">
-        <v>1500.000033728664</v>
+        <v>1120.000034052782</v>
       </c>
       <c r="C64" t="n">
-        <v>-12223.50568750581</v>
+        <v>-1525.327697467354</v>
       </c>
       <c r="D64" t="n">
-        <v>6505.381874347095</v>
+        <v>4354.46465928292</v>
       </c>
     </row>
     <row r="65">
@@ -1551,13 +1599,13 @@
         <v>0.9896016858807858</v>
       </c>
       <c r="B65" t="n">
-        <v>1500.000051094171</v>
+        <v>1120.000038026402</v>
       </c>
       <c r="C65" t="n">
-        <v>-12300.83121941102</v>
+        <v>-1556.231374511083</v>
       </c>
       <c r="D65" t="n">
-        <v>6494.822978201608</v>
+        <v>4297.907110262442</v>
       </c>
     </row>
     <row r="66">
@@ -1565,13 +1613,13 @@
         <v>1.005309649148735</v>
       </c>
       <c r="B66" t="n">
-        <v>1500.000075887706</v>
+        <v>1120.000042073484</v>
       </c>
       <c r="C66" t="n">
-        <v>-12378.89812013774</v>
+        <v>-1587.416901762155</v>
       </c>
       <c r="D66" t="n">
-        <v>6484.375545285357</v>
+        <v>4240.213268882056</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +1627,13 @@
         <v>1.021017612416684</v>
       </c>
       <c r="B67" t="n">
-        <v>1500.000032102193</v>
+        <v>1120.000046123705</v>
       </c>
       <c r="C67" t="n">
-        <v>-12457.78628411466</v>
+        <v>-1618.92819457477</v>
       </c>
       <c r="D67" t="n">
-        <v>6474.029718799116</v>
+        <v>4181.290683156654</v>
       </c>
     </row>
     <row r="68">
@@ -1593,13 +1641,13 @@
         <v>1.036725575684633</v>
       </c>
       <c r="B68" t="n">
-        <v>1500.000048336418</v>
+        <v>1120.000050095775</v>
       </c>
       <c r="C68" t="n">
-        <v>-12537.57518094411</v>
+        <v>-1650.810799458481</v>
       </c>
       <c r="D68" t="n">
-        <v>6463.773819091213</v>
+        <v>4121.038740312109</v>
       </c>
     </row>
     <row r="69">
@@ -1607,13 +1655,13 @@
         <v>1.052433538952581</v>
       </c>
       <c r="B69" t="n">
-        <v>1500.000071356627</v>
+        <v>1120.000053904504</v>
       </c>
       <c r="C69" t="n">
-        <v>-12618.34880359807</v>
+        <v>-1683.112192948988</v>
       </c>
       <c r="D69" t="n">
-        <v>6453.598366072431</v>
+        <v>4059.347484986411</v>
       </c>
     </row>
     <row r="70">
@@ -1621,13 +1669,13 @@
         <v>1.06814150222053</v>
       </c>
       <c r="B70" t="n">
-        <v>1500.000033065891</v>
+        <v>1120.000057528482</v>
       </c>
       <c r="C70" t="n">
-        <v>-12700.19409059389</v>
+        <v>-1715.882108407328</v>
       </c>
       <c r="D70" t="n">
-        <v>6443.494278181673</v>
+        <v>3996.096227257016</v>
       </c>
     </row>
     <row r="71">
@@ -1635,13 +1683,13 @@
         <v>1.083849465488479</v>
       </c>
       <c r="B71" t="n">
-        <v>1500.000052491542</v>
+        <v>1120.000061473519</v>
       </c>
       <c r="C71" t="n">
-        <v>-12783.19892485059</v>
+        <v>-1749.1728956639</v>
       </c>
       <c r="D71" t="n">
-        <v>6433.450703824075</v>
+        <v>3931.151891162348</v>
       </c>
     </row>
     <row r="72">
@@ -1649,13 +1697,13 @@
         <v>1.099557428756428</v>
       </c>
       <c r="B72" t="n">
-        <v>1500.000057597244</v>
+        <v>1120.000065168237</v>
       </c>
       <c r="C72" t="n">
-        <v>-12854.67564357498</v>
+        <v>-1783.039928230353</v>
       </c>
       <c r="D72" t="n">
-        <v>6421.607105568992</v>
+        <v>3864.367061767873</v>
       </c>
     </row>
     <row r="73">
@@ -1663,13 +1711,13 @@
         <v>1.115265392024377</v>
       </c>
       <c r="B73" t="n">
-        <v>1500.000079426389</v>
+        <v>1120.000068299303</v>
       </c>
       <c r="C73" t="n">
-        <v>-12919.08891761615</v>
+        <v>-1817.542051429273</v>
       </c>
       <c r="D73" t="n">
-        <v>6408.595090335814</v>
+        <v>3795.577618797301</v>
       </c>
     </row>
     <row r="74">
@@ -1677,13 +1725,13 @@
         <v>1.130973355292326</v>
       </c>
       <c r="B74" t="n">
-        <v>1500.000040361291</v>
+        <v>1120.000070722526</v>
       </c>
       <c r="C74" t="n">
-        <v>-12984.49143426405</v>
+        <v>-1852.742094641785</v>
       </c>
       <c r="D74" t="n">
-        <v>6395.561425784315</v>
+        <v>3724.599891771163</v>
       </c>
     </row>
     <row r="75">
@@ -1691,13 +1739,13 @@
         <v>1.146681318560275</v>
       </c>
       <c r="B75" t="n">
-        <v>1500.000056035743</v>
+        <v>1120.000072295828</v>
       </c>
       <c r="C75" t="n">
-        <v>-13050.95635974826</v>
+        <v>-1888.707456483511</v>
       </c>
       <c r="D75" t="n">
-        <v>6382.492677363887</v>
+        <v>3651.22720059393</v>
       </c>
     </row>
     <row r="76">
@@ -1705,13 +1753,13 @@
         <v>1.162389281828224</v>
       </c>
       <c r="B76" t="n">
-        <v>1500.000077654253</v>
+        <v>1120.000072927748</v>
       </c>
       <c r="C76" t="n">
-        <v>-13118.56240247892</v>
+        <v>-1925.51077746276</v>
       </c>
       <c r="D76" t="n">
-        <v>6369.377003178926</v>
+        <v>3575.225615528474</v>
       </c>
     </row>
     <row r="77">
@@ -1719,13 +1767,13 @@
         <v>1.178097245096172</v>
       </c>
       <c r="B77" t="n">
-        <v>1500.000041943027</v>
+        <v>1120.000075740774</v>
       </c>
       <c r="C77" t="n">
-        <v>-13187.39225277223</v>
+        <v>-1963.230708830358</v>
       </c>
       <c r="D77" t="n">
-        <v>6356.202499792051</v>
+        <v>3496.328703544478</v>
       </c>
     </row>
     <row r="78">
@@ -1733,13 +1781,13 @@
         <v>1.193805208364121</v>
       </c>
       <c r="B78" t="n">
-        <v>1500.000059812482</v>
+        <v>1120.00007785881</v>
       </c>
       <c r="C78" t="n">
-        <v>-13257.53048378844</v>
+        <v>-2001.952857709053</v>
       </c>
       <c r="D78" t="n">
-        <v>6342.955133657834</v>
+        <v>3414.231067011766</v>
       </c>
     </row>
     <row r="79">
@@ -1747,13 +1795,13 @@
         <v>1.20951317163207</v>
       </c>
       <c r="B79" t="n">
-        <v>1500.000044334339</v>
+        <v>1120.000061153343</v>
       </c>
       <c r="C79" t="n">
-        <v>-13329.06894712741</v>
+        <v>-2040.416371322783</v>
       </c>
       <c r="D79" t="n">
-        <v>6329.622654771363</v>
+        <v>3327.827991485831</v>
       </c>
     </row>
     <row r="80">
@@ -1761,13 +1809,13 @@
         <v>1.225221134900019</v>
       </c>
       <c r="B80" t="n">
-        <v>1500.000047199716</v>
+        <v>1120.000056619907</v>
       </c>
       <c r="C80" t="n">
-        <v>-13369.92322308342</v>
+        <v>-2074.281002548347</v>
       </c>
       <c r="D80" t="n">
-        <v>6319.873155370266</v>
+        <v>3234.508301507584</v>
       </c>
     </row>
     <row r="81">
@@ -1775,13 +1823,13 @@
         <v>1.240929098167968</v>
       </c>
       <c r="B81" t="n">
-        <v>1500.000061540176</v>
+        <v>1120.000051223106</v>
       </c>
       <c r="C81" t="n">
-        <v>-13410.92536916682</v>
+        <v>-2109.016552448998</v>
       </c>
       <c r="D81" t="n">
-        <v>6310.158762275461</v>
+        <v>3136.996380162949</v>
       </c>
     </row>
     <row r="82">
@@ -1789,13 +1837,13 @@
         <v>1.256637061435917</v>
       </c>
       <c r="B82" t="n">
-        <v>1500.000079768013</v>
+        <v>1120.000045116084</v>
       </c>
       <c r="C82" t="n">
-        <v>-13452.63423708199</v>
+        <v>-2144.715581515599</v>
       </c>
       <c r="D82" t="n">
-        <v>6300.412288992245</v>
+        <v>3034.787106044659</v>
       </c>
     </row>
     <row r="83">
@@ -1803,13 +1851,13 @@
         <v>1.272345024703866</v>
       </c>
       <c r="B83" t="n">
-        <v>1500.000047101669</v>
+        <v>1120.000038528468</v>
       </c>
       <c r="C83" t="n">
-        <v>-13495.10156360312</v>
+        <v>-2181.481334172402</v>
       </c>
       <c r="D83" t="n">
-        <v>6290.625387844666</v>
+        <v>2927.280500476517</v>
       </c>
     </row>
     <row r="84">
@@ -1817,13 +1865,13 @@
         <v>1.288052987971815</v>
       </c>
       <c r="B84" t="n">
-        <v>1500.000061132918</v>
+        <v>1120.000031714199</v>
       </c>
       <c r="C84" t="n">
-        <v>-13538.37939600459</v>
+        <v>-2219.429818710578</v>
       </c>
       <c r="D84" t="n">
-        <v>6280.787900171823</v>
+        <v>2813.756450674612</v>
       </c>
     </row>
     <row r="85">
@@ -1831,13 +1879,13 @@
         <v>1.303760951239763</v>
       </c>
       <c r="B85" t="n">
-        <v>1500.000079125263</v>
+        <v>1120.000024955755</v>
       </c>
       <c r="C85" t="n">
-        <v>-13582.52475148721</v>
+        <v>-2258.692418478796</v>
       </c>
       <c r="D85" t="n">
-        <v>6270.890897115969</v>
+        <v>2693.340766401085</v>
       </c>
     </row>
     <row r="86">
@@ -1845,13 +1893,13 @@
         <v>1.319468914507712</v>
       </c>
       <c r="B86" t="n">
-        <v>1500.000048474029</v>
+        <v>1120.000080007272</v>
       </c>
       <c r="C86" t="n">
-        <v>-13627.59798176855</v>
+        <v>-2299.418907084207</v>
       </c>
       <c r="D86" t="n">
-        <v>6260.925264320569</v>
+        <v>2564.958692481599</v>
       </c>
     </row>
     <row r="87">
@@ -1859,13 +1907,13 @@
         <v>1.335176877775661</v>
       </c>
       <c r="B87" t="n">
-        <v>1500.000062881896</v>
+        <v>1120.000057571659</v>
       </c>
       <c r="C87" t="n">
-        <v>-13673.66069582413</v>
+        <v>-2341.783044482032</v>
       </c>
       <c r="D87" t="n">
-        <v>6250.880014466709</v>
+        <v>2427.271625019696</v>
       </c>
     </row>
     <row r="88">
@@ -1873,13 +1921,13 @@
         <v>1.35088484104361</v>
       </c>
       <c r="B88" t="n">
-        <v>1500.000081247215</v>
+        <v>1120.000038237803</v>
       </c>
       <c r="C88" t="n">
-        <v>-13720.78040668458</v>
+        <v>-2385.986117318319</v>
       </c>
       <c r="D88" t="n">
-        <v>6240.74519607354</v>
+        <v>2278.584951586535</v>
       </c>
     </row>
     <row r="89">
@@ -1887,13 +1935,13 @@
         <v>1.366592804311559</v>
       </c>
       <c r="B89" t="n">
-        <v>1500.00005161956</v>
+        <v>1120.000022862736</v>
       </c>
       <c r="C89" t="n">
-        <v>-13769.02905406066</v>
+        <v>-2432.265926829728</v>
       </c>
       <c r="D89" t="n">
-        <v>6230.51053688325</v>
+        <v>2116.718307382223</v>
       </c>
     </row>
     <row r="90">
@@ -1901,13 +1949,13 @@
         <v>1.382300767579508</v>
       </c>
       <c r="B90" t="n">
-        <v>1500.000062514453</v>
+        <v>1120.000084531781</v>
       </c>
       <c r="C90" t="n">
-        <v>-13818.48106270302</v>
+        <v>-2480.672205941979</v>
       </c>
       <c r="D90" t="n">
-        <v>6220.163796662649</v>
+        <v>1939.923018638032</v>
       </c>
     </row>
     <row r="91">
@@ -1915,13 +1963,13 @@
         <v>1.398008730847457</v>
       </c>
       <c r="B91" t="n">
-        <v>1500.00007541782</v>
+        <v>1120.000024764335</v>
       </c>
       <c r="C91" t="n">
-        <v>-13869.21798268747</v>
+        <v>-2528.843672369106</v>
       </c>
       <c r="D91" t="n">
-        <v>6209.693517448331</v>
+        <v>1758.121938587227</v>
       </c>
     </row>
     <row r="92">
@@ -1929,13 +1977,13 @@
         <v>1.413716694115406</v>
       </c>
       <c r="B92" t="n">
-        <v>1500.000086448084</v>
+        <v>1120.000038275874</v>
       </c>
       <c r="C92" t="n">
-        <v>-13921.3265094261</v>
+        <v>-2576.160290160892</v>
       </c>
       <c r="D92" t="n">
-        <v>6199.087255774159</v>
+        <v>1574.311689091523</v>
       </c>
     </row>
     <row r="93">
@@ -1943,13 +1991,13 @@
         <v>1.429424657383354</v>
       </c>
       <c r="B93" t="n">
-        <v>1500.000097112625</v>
+        <v>1120.00006225505</v>
       </c>
       <c r="C93" t="n">
-        <v>-13974.89952484684</v>
+        <v>-2622.716879319893</v>
       </c>
       <c r="D93" t="n">
-        <v>6188.331815202132</v>
+        <v>1388.259547286328</v>
       </c>
     </row>
     <row r="94">
@@ -1957,13 +2005,13 @@
         <v>1.445132620651303</v>
       </c>
       <c r="B94" t="n">
-        <v>1500.000057494006</v>
+        <v>1120.000080603019</v>
       </c>
       <c r="C94" t="n">
-        <v>-14030.03767270417</v>
+        <v>-2654.193324184034</v>
       </c>
       <c r="D94" t="n">
-        <v>6177.413759758581</v>
+        <v>1218.612007111876</v>
       </c>
     </row>
     <row r="95">
@@ -1971,13 +2019,13 @@
         <v>1.460840583919252</v>
       </c>
       <c r="B95" t="n">
-        <v>1500.000086578948</v>
+        <v>1120.000029932737</v>
       </c>
       <c r="C95" t="n">
-        <v>-14078.99745459315</v>
+        <v>-2665.79493999645</v>
       </c>
       <c r="D95" t="n">
-        <v>6167.438057751615</v>
+        <v>1071.733189650954</v>
       </c>
     </row>
     <row r="96">
@@ -1985,13 +2033,13 @@
         <v>1.476548547187201</v>
       </c>
       <c r="B96" t="n">
-        <v>1500.000090532783</v>
+        <v>1120.000039701461</v>
       </c>
       <c r="C96" t="n">
-        <v>-14102.42563738783</v>
+        <v>-2675.803223373438</v>
       </c>
       <c r="D96" t="n">
-        <v>6161.14197503173</v>
+        <v>923.6251536867445</v>
       </c>
     </row>
     <row r="97">
@@ -1999,13 +2047,13 @@
         <v>1.49225651045515</v>
       </c>
       <c r="B97" t="n">
-        <v>1500.000093827656</v>
+        <v>1120.000052682468</v>
       </c>
       <c r="C97" t="n">
-        <v>-14126.10487951339</v>
+        <v>-2684.238587823803</v>
       </c>
       <c r="D97" t="n">
-        <v>6154.823084424392</v>
+        <v>774.1354378713884</v>
       </c>
     </row>
     <row r="98">
@@ -2013,13 +2061,13 @@
         <v>1.507964473723099</v>
       </c>
       <c r="B98" t="n">
-        <v>1500.000096237175</v>
+        <v>1120.000070042293</v>
       </c>
       <c r="C98" t="n">
-        <v>-14150.05178722839</v>
+        <v>-2691.117869997211</v>
       </c>
       <c r="D98" t="n">
-        <v>6148.476468059898</v>
+        <v>623.1035208277133</v>
       </c>
     </row>
     <row r="99">
@@ -2027,13 +2075,13 @@
         <v>1.523672436991048</v>
       </c>
       <c r="B99" t="n">
-        <v>1500.000097553161</v>
+        <v>1120.000094860836</v>
       </c>
       <c r="C99" t="n">
-        <v>-14174.28339372691</v>
+        <v>-2696.454736973922</v>
       </c>
       <c r="D99" t="n">
-        <v>6142.097052290511</v>
+        <v>470.3597987047184</v>
       </c>
     </row>
     <row r="100">
@@ -2041,13 +2089,13 @@
         <v>1.539380400258997</v>
       </c>
       <c r="B100" t="n">
-        <v>1500.000098118999</v>
+        <v>1120.000042357115</v>
       </c>
       <c r="C100" t="n">
-        <v>-14198.81718184578</v>
+        <v>-2700.260277937101</v>
       </c>
       <c r="D100" t="n">
-        <v>6135.679579299365</v>
+        <v>315.7244284397921</v>
       </c>
     </row>
     <row r="101">
@@ -2055,13 +2103,13 @@
         <v>1.555088363526945</v>
       </c>
       <c r="B101" t="n">
-        <v>1500.000056312314</v>
+        <v>1120.000060035467</v>
       </c>
       <c r="C101" t="n">
-        <v>-14223.6719016946</v>
+        <v>-2702.541145961357</v>
       </c>
       <c r="D101" t="n">
-        <v>6129.219019960427</v>
+        <v>159.0059763562808</v>
       </c>
     </row>
     <row r="102">
@@ -2069,13 +2117,13 @@
         <v>1.570796326794894</v>
       </c>
       <c r="B102" t="n">
-        <v>1500.000057782493</v>
+        <v>1120.000090563025</v>
       </c>
       <c r="C102" t="n">
-        <v>-14248.86448200189</v>
+        <v>-2703.302187864252</v>
       </c>
       <c r="D102" t="n">
-        <v>6122.708804157201</v>
+        <v>2.32587029001609e-11</v>
       </c>
     </row>
     <row r="103">
@@ -2083,13 +2131,13 @@
         <v>1.586504290062843</v>
       </c>
       <c r="B103" t="n">
-        <v>1500.000064306148</v>
+        <v>1120.000060035467</v>
       </c>
       <c r="C103" t="n">
-        <v>-14244.35402168467</v>
+        <v>-2702.541145961357</v>
       </c>
       <c r="D103" t="n">
-        <v>6116.176284508046</v>
+        <v>-159.0059763562341</v>
       </c>
     </row>
     <row r="104">
@@ -2097,13 +2145,13 @@
         <v>1.602212253330792</v>
       </c>
       <c r="B104" t="n">
-        <v>1500.000071222854</v>
+        <v>1120.000042357115</v>
       </c>
       <c r="C104" t="n">
-        <v>-14239.77480852149</v>
+        <v>-2700.260277937102</v>
       </c>
       <c r="D104" t="n">
-        <v>6109.650185790462</v>
+        <v>-315.7244284397478</v>
       </c>
     </row>
     <row r="105">
@@ -2111,13 +2159,13 @@
         <v>1.617920216598741</v>
       </c>
       <c r="B105" t="n">
-        <v>1500.00007947983</v>
+        <v>1120.000094860835</v>
       </c>
       <c r="C105" t="n">
-        <v>-14235.12437532421</v>
+        <v>-2696.454736973925</v>
       </c>
       <c r="D105" t="n">
-        <v>6103.127205257737</v>
+        <v>-470.3597987046739</v>
       </c>
     </row>
     <row r="106">
@@ -2125,13 +2173,13 @@
         <v>1.63362817986669</v>
       </c>
       <c r="B106" t="n">
-        <v>1500.000089996867</v>
+        <v>1120.000070042293</v>
       </c>
       <c r="C106" t="n">
-        <v>-14230.40011397141</v>
+        <v>-2691.117869997212</v>
       </c>
       <c r="D106" t="n">
-        <v>6096.604047173174</v>
+        <v>-623.1035208276702</v>
       </c>
     </row>
     <row r="107">
@@ -2139,13 +2187,13 @@
         <v>1.649336143134639</v>
       </c>
       <c r="B107" t="n">
-        <v>1500.000072185556</v>
+        <v>1120.000052682468</v>
       </c>
       <c r="C107" t="n">
-        <v>-14213.64738452496</v>
+        <v>-2684.238587823805</v>
       </c>
       <c r="D107" t="n">
-        <v>6071.885837276783</v>
+        <v>-774.1354378713459</v>
       </c>
     </row>
     <row r="108">
@@ -2153,13 +2201,13 @@
         <v>1.665044106402588</v>
       </c>
       <c r="B108" t="n">
-        <v>1500.000066615137</v>
+        <v>1120.000039701461</v>
       </c>
       <c r="C108" t="n">
-        <v>-14149.6516397078</v>
+        <v>-2675.80322337344</v>
       </c>
       <c r="D108" t="n">
-        <v>5975.335467492077</v>
+        <v>-923.6251536867001</v>
       </c>
     </row>
     <row r="109">
@@ -2167,13 +2215,13 @@
         <v>1.680752069670536</v>
       </c>
       <c r="B109" t="n">
-        <v>1500.000067367643</v>
+        <v>1120.000029932736</v>
       </c>
       <c r="C109" t="n">
-        <v>-14086.13441072765</v>
+        <v>-2665.794939996455</v>
       </c>
       <c r="D109" t="n">
-        <v>5879.561540833662</v>
+        <v>-1071.73318965091</v>
       </c>
     </row>
     <row r="110">
@@ -2181,13 +2229,13 @@
         <v>1.696460032938485</v>
       </c>
       <c r="B110" t="n">
-        <v>1500.000068886994</v>
+        <v>1120.000080603019</v>
       </c>
       <c r="C110" t="n">
-        <v>-14023.05300377717</v>
+        <v>-2654.193324184036</v>
       </c>
       <c r="D110" t="n">
-        <v>5784.503018884421</v>
+        <v>-1218.612007111834</v>
       </c>
     </row>
     <row r="111">
@@ -2195,13 +2243,13 @@
         <v>1.712167996206434</v>
       </c>
       <c r="B111" t="n">
-        <v>1500.000068968454</v>
+        <v>1120.00006225505</v>
       </c>
       <c r="C111" t="n">
-        <v>-13960.3657825289</v>
+        <v>-2622.716879319906</v>
       </c>
       <c r="D111" t="n">
-        <v>5690.100574197935</v>
+        <v>-1388.259547286272</v>
       </c>
     </row>
     <row r="112">
@@ -2209,13 +2257,13 @@
         <v>1.727875959474383</v>
       </c>
       <c r="B112" t="n">
-        <v>1500.000064111644</v>
+        <v>1120.000038275874</v>
       </c>
       <c r="C112" t="n">
-        <v>-13898.03212528785</v>
+        <v>-2576.160290160906</v>
       </c>
       <c r="D112" t="n">
-        <v>5596.296463454633</v>
+        <v>-1574.311689091469</v>
       </c>
     </row>
     <row r="113">
@@ -2223,13 +2271,13 @@
         <v>1.743583922742332</v>
       </c>
       <c r="B113" t="n">
-        <v>1500.000059626598</v>
+        <v>1120.000024764335</v>
       </c>
       <c r="C113" t="n">
-        <v>-13836.01213958791</v>
+        <v>-2528.843672369122</v>
       </c>
       <c r="D113" t="n">
-        <v>5503.034295499823</v>
+        <v>-1758.121938587176</v>
       </c>
     </row>
     <row r="114">
@@ -2237,13 +2285,13 @@
         <v>1.759291886010281</v>
       </c>
       <c r="B114" t="n">
-        <v>1500.000055787714</v>
+        <v>1120.000084531782</v>
       </c>
       <c r="C114" t="n">
-        <v>-13774.26678419175</v>
+        <v>-2480.67220594199</v>
       </c>
       <c r="D114" t="n">
-        <v>5410.258990651111</v>
+        <v>-1939.92301863798</v>
       </c>
     </row>
     <row r="115">
@@ -2251,13 +2299,13 @@
         <v>1.77499984927823</v>
       </c>
       <c r="B115" t="n">
-        <v>1500.000099251035</v>
+        <v>1120.000022862736</v>
       </c>
       <c r="C115" t="n">
-        <v>-13712.75690516082</v>
+        <v>-2432.265926829743</v>
       </c>
       <c r="D115" t="n">
-        <v>5317.91625775154</v>
+        <v>-2116.718307382173</v>
       </c>
     </row>
     <row r="116">
@@ -2265,13 +2313,13 @@
         <v>1.790707812546179</v>
       </c>
       <c r="B116" t="n">
-        <v>1500.000093374037</v>
+        <v>1120.000038237803</v>
       </c>
       <c r="C116" t="n">
-        <v>-13651.44629175518</v>
+        <v>-2385.986117318333</v>
       </c>
       <c r="D116" t="n">
-        <v>5225.953864173968</v>
+        <v>-2278.58495158649</v>
       </c>
     </row>
     <row r="117">
@@ -2279,13 +2327,13 @@
         <v>1.806415775814127</v>
       </c>
       <c r="B117" t="n">
-        <v>1500.000088029785</v>
+        <v>1120.000057571658</v>
       </c>
       <c r="C117" t="n">
-        <v>-13590.29674594976</v>
+        <v>-2341.783044482047</v>
       </c>
       <c r="D117" t="n">
-        <v>5134.319353497482</v>
+        <v>-2427.271625019655</v>
       </c>
     </row>
     <row r="118">
@@ -2293,13 +2341,13 @@
         <v>1.822123739082076</v>
       </c>
       <c r="B118" t="n">
-        <v>1500.000061361601</v>
+        <v>1120.000080007272</v>
       </c>
       <c r="C118" t="n">
-        <v>-13495.09615402562</v>
+        <v>-2299.418907084218</v>
       </c>
       <c r="D118" t="n">
-        <v>5003.098173746572</v>
+        <v>-2564.95869248156</v>
       </c>
     </row>
     <row r="119">
@@ -2307,13 +2355,13 @@
         <v>1.837831702350025</v>
       </c>
       <c r="B119" t="n">
-        <v>1500.000050894738</v>
+        <v>1120.000024955755</v>
       </c>
       <c r="C119" t="n">
-        <v>-13367.43597680043</v>
+        <v>-2258.69241847881</v>
       </c>
       <c r="D119" t="n">
-        <v>4834.284006180793</v>
+        <v>-2693.340766401051</v>
       </c>
     </row>
     <row r="120">
@@ -2321,13 +2369,13 @@
         <v>1.853539665617974</v>
       </c>
       <c r="B120" t="n">
-        <v>1500.000090325496</v>
+        <v>1120.000031714198</v>
       </c>
       <c r="C120" t="n">
-        <v>-13240.35245233732</v>
+        <v>-2219.42981871059</v>
       </c>
       <c r="D120" t="n">
-        <v>4666.452699674493</v>
+        <v>-2813.75645067458</v>
       </c>
     </row>
     <row r="121">
@@ -2335,13 +2383,13 @@
         <v>1.869247628885923</v>
       </c>
       <c r="B121" t="n">
-        <v>1500.000079349535</v>
+        <v>1120.000038528468</v>
       </c>
       <c r="C121" t="n">
-        <v>-13113.75652914117</v>
+        <v>-2181.481334172414</v>
       </c>
       <c r="D121" t="n">
-        <v>4499.493833937689</v>
+        <v>-2927.280500476488</v>
       </c>
     </row>
     <row r="122">
@@ -2349,13 +2397,13 @@
         <v>1.884955592153872</v>
       </c>
       <c r="B122" t="n">
-        <v>1500.000070776106</v>
+        <v>1120.000045116084</v>
       </c>
       <c r="C122" t="n">
-        <v>-12987.55836304813</v>
+        <v>-2144.71558151561</v>
       </c>
       <c r="D122" t="n">
-        <v>4333.298608907424</v>
+        <v>-3034.787106044628</v>
       </c>
     </row>
     <row r="123">
@@ -2363,13 +2411,13 @@
         <v>1.900663555421821</v>
       </c>
       <c r="B123" t="n">
-        <v>1500.000063207456</v>
+        <v>1120.000051223106</v>
       </c>
       <c r="C123" t="n">
-        <v>-12861.67011569493</v>
+        <v>-2109.016552449006</v>
       </c>
       <c r="D123" t="n">
-        <v>4167.760590724043</v>
+        <v>-3136.996380162916</v>
       </c>
     </row>
     <row r="124">
@@ -2377,13 +2425,13 @@
         <v>1.91637151868977</v>
       </c>
       <c r="B124" t="n">
-        <v>1500.000056554611</v>
+        <v>1120.000056619907</v>
       </c>
       <c r="C124" t="n">
-        <v>-12736.00485530835</v>
+        <v>-2074.281002548355</v>
       </c>
       <c r="D124" t="n">
-        <v>4002.775119955566</v>
+        <v>-3234.508301507553</v>
       </c>
     </row>
     <row r="125">
@@ -2391,13 +2439,13 @@
         <v>1.932079481957719</v>
       </c>
       <c r="B125" t="n">
-        <v>1500.000050705983</v>
+        <v>1120.000061153344</v>
       </c>
       <c r="C125" t="n">
-        <v>-12610.47630904857</v>
+        <v>-2040.416371322792</v>
       </c>
       <c r="D125" t="n">
-        <v>3838.239023968023</v>
+        <v>-3327.827991485805</v>
       </c>
     </row>
     <row r="126">
@@ -2405,13 +2453,13 @@
         <v>1.947787445225667</v>
       </c>
       <c r="B126" t="n">
-        <v>1500.000096793524</v>
+        <v>1120.00007785881</v>
       </c>
       <c r="C126" t="n">
-        <v>-12484.99785433014</v>
+        <v>-2001.952857709064</v>
       </c>
       <c r="D126" t="n">
-        <v>3674.05010742771</v>
+        <v>-3414.23106701174</v>
       </c>
     </row>
     <row r="127">
@@ -2419,13 +2467,13 @@
         <v>1.963495408493616</v>
       </c>
       <c r="B127" t="n">
-        <v>1500.000082774142</v>
+        <v>1120.000075740774</v>
       </c>
       <c r="C127" t="n">
-        <v>-12351.78085190739</v>
+        <v>-1963.23070883037</v>
       </c>
       <c r="D127" t="n">
-        <v>3494.243192014353</v>
+        <v>-3496.328703544457</v>
       </c>
     </row>
     <row r="128">
@@ -2433,13 +2481,13 @@
         <v>1.979203371761565</v>
       </c>
       <c r="B128" t="n">
-        <v>1500.000067060833</v>
+        <v>1120.000072927748</v>
       </c>
       <c r="C128" t="n">
-        <v>-12201.94821602551</v>
+        <v>-1925.510777462773</v>
       </c>
       <c r="D128" t="n">
-        <v>3282.259738583192</v>
+        <v>-3575.225615528453</v>
       </c>
     </row>
     <row r="129">
@@ -2447,13 +2495,13 @@
         <v>1.994911335029514</v>
       </c>
       <c r="B129" t="n">
-        <v>1500.000060177689</v>
+        <v>1120.000072295828</v>
       </c>
       <c r="C129" t="n">
-        <v>-12038.07615935748</v>
+        <v>-1888.707456483521</v>
       </c>
       <c r="D129" t="n">
-        <v>3045.51708161196</v>
+        <v>-3651.227200593908</v>
       </c>
     </row>
     <row r="130">
@@ -2461,13 +2509,13 @@
         <v>2.010619298297463</v>
       </c>
       <c r="B130" t="n">
-        <v>1500.000060212453</v>
+        <v>1120.000070722526</v>
       </c>
       <c r="C130" t="n">
-        <v>-11861.95501594913</v>
+        <v>-1852.742094641796</v>
       </c>
       <c r="D130" t="n">
-        <v>2789.187712546822</v>
+        <v>-3724.599891771144</v>
       </c>
     </row>
     <row r="131">
@@ -2475,13 +2523,13 @@
         <v>2.026327261565412</v>
       </c>
       <c r="B131" t="n">
-        <v>1500.00006701976</v>
+        <v>1120.000068299303</v>
       </c>
       <c r="C131" t="n">
-        <v>-11674.79936475189</v>
+        <v>-1817.542051429282</v>
       </c>
       <c r="D131" t="n">
-        <v>2516.894282501461</v>
+        <v>-3795.57761879728</v>
       </c>
     </row>
     <row r="132">
@@ -2489,13 +2537,13 @@
         <v>2.042035224833361</v>
       </c>
       <c r="B132" t="n">
-        <v>1500.000083539757</v>
+        <v>1120.000065168237</v>
       </c>
       <c r="C132" t="n">
-        <v>-11477.42566862293</v>
+        <v>-1783.039928230364</v>
       </c>
       <c r="D132" t="n">
-        <v>2231.227366780769</v>
+        <v>-3864.367061767854</v>
       </c>
     </row>
     <row r="133">
@@ -2503,13 +2551,13 @@
         <v>2.05774318810131</v>
       </c>
       <c r="B133" t="n">
-        <v>1500.000033477845</v>
+        <v>1120.000061473519</v>
       </c>
       <c r="C133" t="n">
-        <v>-11270.36385415598</v>
+        <v>-1749.172895663909</v>
       </c>
       <c r="D133" t="n">
-        <v>1934.064514342163</v>
+        <v>-3931.151891162326</v>
       </c>
     </row>
     <row r="134">
@@ -2517,13 +2565,13 @@
         <v>2.073451151369258</v>
       </c>
       <c r="B134" t="n">
-        <v>1500.000048483798</v>
+        <v>1120.000057528482</v>
       </c>
       <c r="C134" t="n">
-        <v>-11053.92598553806</v>
+        <v>-1715.882108407334</v>
       </c>
       <c r="D134" t="n">
-        <v>1626.776357909163</v>
+        <v>-3996.096227256987</v>
       </c>
     </row>
     <row r="135">
@@ -2531,13 +2579,13 @@
         <v>2.089159114637207</v>
       </c>
       <c r="B135" t="n">
-        <v>1500.000078490522</v>
+        <v>1120.000053904504</v>
       </c>
       <c r="C135" t="n">
-        <v>-10828.25810417332</v>
+        <v>-1683.112192948996</v>
       </c>
       <c r="D135" t="n">
-        <v>1310.361753902862</v>
+        <v>-4059.347484986392</v>
       </c>
     </row>
     <row r="136">
@@ -2545,13 +2593,13 @@
         <v>2.104867077905156</v>
       </c>
       <c r="B136" t="n">
-        <v>1500.00003209493</v>
+        <v>1120.000050095775</v>
       </c>
       <c r="C136" t="n">
-        <v>-10593.37100444066</v>
+        <v>-1650.810799458487</v>
       </c>
       <c r="D136" t="n">
-        <v>985.541114741117</v>
+        <v>-4121.038740312084</v>
       </c>
     </row>
     <row r="137">
@@ -2559,13 +2607,13 @@
         <v>2.120575041173105</v>
       </c>
       <c r="B137" t="n">
-        <v>1500.000060068691</v>
+        <v>1120.000046123705</v>
       </c>
       <c r="C137" t="n">
-        <v>-10349.15983063273</v>
+        <v>-1618.928194574779</v>
       </c>
       <c r="D137" t="n">
-        <v>652.8228716020111</v>
+        <v>-4181.290683156637</v>
       </c>
     </row>
     <row r="138">
@@ -2573,13 +2621,13 @@
         <v>2.136283004441054</v>
       </c>
       <c r="B138" t="n">
-        <v>1500.000023817574</v>
+        <v>1120.000042073484</v>
       </c>
       <c r="C138" t="n">
-        <v>-10095.42428297291</v>
+        <v>-1587.416901762164</v>
       </c>
       <c r="D138" t="n">
-        <v>312.5472800121155</v>
+        <v>-4240.213268882038</v>
       </c>
     </row>
     <row r="139">
@@ -2587,13 +2635,13 @@
         <v>2.151990967709003</v>
       </c>
       <c r="B139" t="n">
-        <v>1500.000051918722</v>
+        <v>1120.000038026402</v>
       </c>
       <c r="C139" t="n">
-        <v>-9831.873687368738</v>
+        <v>-1556.231374511092</v>
       </c>
       <c r="D139" t="n">
-        <v>-35.07739939434066</v>
+        <v>-4297.907110262424</v>
       </c>
     </row>
     <row r="140">
@@ -2601,13 +2649,13 @@
         <v>2.167698930976952</v>
       </c>
       <c r="B140" t="n">
-        <v>1500.000019369712</v>
+        <v>1120.000034052782</v>
       </c>
       <c r="C140" t="n">
-        <v>-9558.13819611418</v>
+        <v>-1525.327697467364</v>
       </c>
       <c r="D140" t="n">
-        <v>-389.9532231296749</v>
+        <v>-4354.464659282905</v>
       </c>
     </row>
     <row r="141">
@@ -2615,13 +2663,13 @@
         <v>2.183406894244901</v>
       </c>
       <c r="B141" t="n">
-        <v>1500.000048227325</v>
+        <v>1120.000030213777</v>
       </c>
       <c r="C141" t="n">
-        <v>-9273.768160650905</v>
+        <v>-1494.663310532043</v>
       </c>
       <c r="D141" t="n">
-        <v>-752.0717974767576</v>
+        <v>-4409.971216580712</v>
       </c>
     </row>
     <row r="142">
@@ -2629,13 +2677,13 @@
         <v>2.199114857512849</v>
       </c>
       <c r="B142" t="n">
-        <v>1500.000014737403</v>
+        <v>1120.000026646647</v>
       </c>
       <c r="C142" t="n">
-        <v>-8978.239801712036</v>
+        <v>-1464.196751334037</v>
       </c>
       <c r="D142" t="n">
-        <v>-1121.503929863137</v>
+        <v>-4464.505797918307</v>
       </c>
     </row>
     <row r="143">
@@ -2643,13 +2691,13 @@
         <v>2.214822820780798</v>
       </c>
       <c r="B143" t="n">
-        <v>1500.000039309979</v>
+        <v>1120.000023276916</v>
       </c>
       <c r="C143" t="n">
-        <v>-8670.950818410316</v>
+        <v>-1433.887413253769</v>
       </c>
       <c r="D143" t="n">
-        <v>-1498.386902088514</v>
+        <v>-4518.141885725665</v>
       </c>
     </row>
     <row r="144">
@@ -2657,13 +2705,13 @@
         <v>2.230530784048747</v>
       </c>
       <c r="B144" t="n">
-        <v>1500.00000912723</v>
+        <v>1120.000095390974</v>
       </c>
       <c r="C144" t="n">
-        <v>-8351.222273962294</v>
+        <v>-1403.695152474301</v>
       </c>
       <c r="D144" t="n">
-        <v>-1882.920450519156</v>
+        <v>-4570.947427651476</v>
       </c>
     </row>
     <row r="145">
@@ -2671,13 +2719,13 @@
         <v>2.246238747316696</v>
       </c>
       <c r="B145" t="n">
-        <v>1500.000025397346</v>
+        <v>1120.000083511204</v>
       </c>
       <c r="C145" t="n">
-        <v>-8018.291658764758</v>
+        <v>-1373.580733093608</v>
       </c>
       <c r="D145" t="n">
-        <v>-2275.358874214822</v>
+        <v>-4622.988074028752</v>
       </c>
     </row>
     <row r="146">
@@ -2685,13 +2733,13 @@
         <v>2.261946710584645</v>
       </c>
       <c r="B146" t="n">
-        <v>1500.00007780137</v>
+        <v>1120.000072431083</v>
       </c>
       <c r="C146" t="n">
-        <v>-7671.310616615829</v>
+        <v>-1343.504565784327</v>
       </c>
       <c r="D146" t="n">
-        <v>-2676.009876815148</v>
+        <v>-4674.323568258202</v>
       </c>
     </row>
     <row r="147">
@@ -2699,13 +2747,13 @@
         <v>2.277654673852594</v>
       </c>
       <c r="B147" t="n">
-        <v>1500.000004142292</v>
+        <v>1120.000062366152</v>
       </c>
       <c r="C147" t="n">
-        <v>-7309.33894045251</v>
+        <v>-1313.427215770179</v>
       </c>
       <c r="D147" t="n">
-        <v>-3085.232992175242</v>
+        <v>-4725.010998091858</v>
       </c>
     </row>
     <row r="148">
@@ -2713,13 +2761,13 @@
         <v>2.293362637120543</v>
       </c>
       <c r="B148" t="n">
-        <v>1500.000000016857</v>
+        <v>1120.000053452563</v>
       </c>
       <c r="C148" t="n">
-        <v>-6931.333306082868</v>
+        <v>-1283.308998250372</v>
       </c>
       <c r="D148" t="n">
-        <v>-3503.435062076739</v>
+        <v>-4775.104468769903</v>
       </c>
     </row>
     <row r="149">
@@ -2727,13 +2775,13 @@
         <v>2.309070600388492</v>
       </c>
       <c r="B149" t="n">
-        <v>1500.000000170267</v>
+        <v>1120.000046820662</v>
       </c>
       <c r="C149" t="n">
-        <v>-6536.142600751371</v>
+        <v>-1253.10975722144</v>
       </c>
       <c r="D149" t="n">
-        <v>-3931.074840381839</v>
+        <v>-4824.655443820667</v>
       </c>
     </row>
     <row r="150">
@@ -2741,13 +2789,13 @@
         <v>2.32477856365644</v>
       </c>
       <c r="B150" t="n">
-        <v>1500.00000054482</v>
+        <v>1120.00004060814</v>
       </c>
       <c r="C150" t="n">
-        <v>-6122.494806025235</v>
+        <v>-1222.78864707651</v>
       </c>
       <c r="D150" t="n">
-        <v>-4368.661728070667</v>
+        <v>-4873.713097279942</v>
       </c>
     </row>
     <row r="151">
@@ -2755,13 +2803,13 @@
         <v>2.340486526924389</v>
       </c>
       <c r="B151" t="n">
-        <v>1500.000000036394</v>
+        <v>1120.000036743811</v>
       </c>
       <c r="C151" t="n">
-        <v>-5691.783996489847</v>
+        <v>-1192.30388758474</v>
       </c>
       <c r="D151" t="n">
-        <v>-4813.981603657461</v>
+        <v>-4922.324537342313</v>
       </c>
     </row>
     <row r="152">
@@ -2769,13 +2817,13 @@
         <v>2.356194490192338</v>
       </c>
       <c r="B152" t="n">
-        <v>1500.000000025149</v>
+        <v>1120.000024758981</v>
       </c>
       <c r="C152" t="n">
-        <v>-5255.317316019714</v>
+        <v>-1163.22011408869</v>
       </c>
       <c r="D152" t="n">
-        <v>-5255.317316019343</v>
+        <v>-4961.709897489419</v>
       </c>
     </row>
     <row r="153">
@@ -2783,13 +2831,13 @@
         <v>2.371902453460287</v>
       </c>
       <c r="B153" t="n">
-        <v>1500.000000036394</v>
+        <v>1120.000092786695</v>
       </c>
       <c r="C153" t="n">
-        <v>-4813.981603657837</v>
+        <v>-1137.033150324874</v>
       </c>
       <c r="D153" t="n">
-        <v>-5691.78399648947</v>
+        <v>-4984.065243146671</v>
       </c>
     </row>
     <row r="154">
@@ -2797,13 +2845,13 @@
         <v>2.387610416728236</v>
       </c>
       <c r="B154" t="n">
-        <v>1500.000000544821</v>
+        <v>1120.000075499973</v>
       </c>
       <c r="C154" t="n">
-        <v>-4368.661728071042</v>
+        <v>-1110.710430817388</v>
       </c>
       <c r="D154" t="n">
-        <v>-6122.494806024875</v>
+        <v>-5006.151413740346</v>
       </c>
     </row>
     <row r="155">
@@ -2811,13 +2859,13 @@
         <v>2.403318379996185</v>
       </c>
       <c r="B155" t="n">
-        <v>1500.000000170267</v>
+        <v>1120.000060736158</v>
       </c>
       <c r="C155" t="n">
-        <v>-3931.074840382209</v>
+        <v>-1084.211415840085</v>
       </c>
       <c r="D155" t="n">
-        <v>-6536.142600751025</v>
+        <v>-5028.000898035538</v>
       </c>
     </row>
     <row r="156">
@@ -2825,13 +2873,13 @@
         <v>2.419026343264134</v>
       </c>
       <c r="B156" t="n">
-        <v>1500.000000016857</v>
+        <v>1120.00004816675</v>
       </c>
       <c r="C156" t="n">
-        <v>-3503.435062077113</v>
+        <v>-1057.494185984516</v>
       </c>
       <c r="D156" t="n">
-        <v>-6931.333306082536</v>
+        <v>-5049.645789278246</v>
       </c>
     </row>
     <row r="157">
@@ -2839,13 +2887,13 @@
         <v>2.434734306532083</v>
       </c>
       <c r="B157" t="n">
-        <v>1500.000004142292</v>
+        <v>1120.000037607642</v>
       </c>
       <c r="C157" t="n">
-        <v>-3085.2329921756</v>
+        <v>-1030.515049894406</v>
       </c>
       <c r="D157" t="n">
-        <v>-7309.338940452195</v>
+        <v>-5071.117053140065</v>
       </c>
     </row>
     <row r="158">
@@ -2853,13 +2901,13 @@
         <v>2.450442269800031</v>
       </c>
       <c r="B158" t="n">
-        <v>1500.000077801369</v>
+        <v>1120.000028865115</v>
       </c>
       <c r="C158" t="n">
-        <v>-2676.009876815501</v>
+        <v>-1003.228226231814</v>
       </c>
       <c r="D158" t="n">
-        <v>-7671.31061661553</v>
+        <v>-5092.444728914921</v>
       </c>
     </row>
     <row r="159">
@@ -2867,13 +2915,13 @@
         <v>2.46615023306798</v>
       </c>
       <c r="B159" t="n">
-        <v>1500.000025397346</v>
+        <v>1120.000021740615</v>
       </c>
       <c r="C159" t="n">
-        <v>-2275.358874215163</v>
+        <v>-975.5854938904565</v>
       </c>
       <c r="D159" t="n">
-        <v>-8018.291658764461</v>
+        <v>-5113.658118136771</v>
       </c>
     </row>
     <row r="160">
@@ -2881,13 +2929,13 @@
         <v>2.481858196335929</v>
       </c>
       <c r="B160" t="n">
-        <v>1500.00000912723</v>
+        <v>1120.000088532469</v>
       </c>
       <c r="C160" t="n">
-        <v>-1882.920450519487</v>
+        <v>-947.5357846420519</v>
       </c>
       <c r="D160" t="n">
-        <v>-8351.222273962007</v>
+        <v>-5134.785134633577</v>
       </c>
     </row>
     <row r="161">
@@ -2895,13 +2943,13 @@
         <v>2.497566159603878</v>
       </c>
       <c r="B161" t="n">
-        <v>1500.000039309979</v>
+        <v>1120.000085658993</v>
       </c>
       <c r="C161" t="n">
-        <v>-1498.386902088846</v>
+        <v>-919.3902109228038</v>
       </c>
       <c r="D161" t="n">
-        <v>-8670.950818410054</v>
+        <v>-5155.556820310048</v>
       </c>
     </row>
     <row r="162">
@@ -2909,13 +2957,13 @@
         <v>2.513274122871827</v>
       </c>
       <c r="B162" t="n">
-        <v>1500.000014737403</v>
+        <v>1120.000090773181</v>
       </c>
       <c r="C162" t="n">
-        <v>-1121.503929863458</v>
+        <v>-891.7737089979352</v>
       </c>
       <c r="D162" t="n">
-        <v>-8978.239801711767</v>
+        <v>-5175.470510041279</v>
       </c>
     </row>
     <row r="163">
@@ -2923,13 +2971,13 @@
         <v>2.528982086139776</v>
       </c>
       <c r="B163" t="n">
-        <v>1500.000048227324</v>
+        <v>1120.000096853634</v>
       </c>
       <c r="C163" t="n">
-        <v>-752.0717974770791</v>
+        <v>-864.6700594423662</v>
       </c>
       <c r="D163" t="n">
-        <v>-9273.768160650659</v>
+        <v>-5194.568346756764</v>
       </c>
     </row>
     <row r="164">
@@ -2937,13 +2985,13 @@
         <v>2.544690049407725</v>
       </c>
       <c r="B164" t="n">
-        <v>1500.000019369712</v>
+        <v>1120.000020056091</v>
       </c>
       <c r="C164" t="n">
-        <v>-389.9532231299803</v>
+        <v>-838.0507082402061</v>
       </c>
       <c r="D164" t="n">
-        <v>-9558.138196113938</v>
+        <v>-5212.900885328389</v>
       </c>
     </row>
     <row r="165">
@@ -2951,13 +2999,13 @@
         <v>2.560398012675674</v>
       </c>
       <c r="B165" t="n">
-        <v>1500.000051918722</v>
+        <v>1120.000021952326</v>
       </c>
       <c r="C165" t="n">
-        <v>-35.07739939464761</v>
+        <v>-811.8886120122875</v>
       </c>
       <c r="D165" t="n">
-        <v>-9831.873687368508</v>
+        <v>-5230.512059421813</v>
       </c>
     </row>
     <row r="166">
@@ -2965,13 +3013,13 @@
         <v>2.576105975943622</v>
       </c>
       <c r="B166" t="n">
-        <v>1500.000023817574</v>
+        <v>1120.000024186931</v>
       </c>
       <c r="C166" t="n">
-        <v>312.5472800118263</v>
+        <v>-786.1582278237106</v>
       </c>
       <c r="D166" t="n">
-        <v>-10095.42428297268</v>
+        <v>-5247.44508713235</v>
       </c>
     </row>
     <row r="167">
@@ -2979,13 +3027,13 @@
         <v>2.591813939211571</v>
       </c>
       <c r="B167" t="n">
-        <v>1500.000060068691</v>
+        <v>1120.000026649645</v>
       </c>
       <c r="C167" t="n">
-        <v>652.8228716017195</v>
+        <v>-760.8353233618416</v>
       </c>
       <c r="D167" t="n">
-        <v>-10349.15983063252</v>
+        <v>-5263.739139146703</v>
       </c>
     </row>
     <row r="168">
@@ -2993,13 +3041,13 @@
         <v>2.60752190247952</v>
       </c>
       <c r="B168" t="n">
-        <v>1500.000032094931</v>
+        <v>1120.000029257738</v>
       </c>
       <c r="C168" t="n">
-        <v>985.541114740833</v>
+        <v>-735.8968913137251</v>
       </c>
       <c r="D168" t="n">
-        <v>-10593.37100444044</v>
+        <v>-5279.430513612547</v>
       </c>
     </row>
     <row r="169">
@@ -3007,13 +3055,13 @@
         <v>2.623229865747469</v>
       </c>
       <c r="B169" t="n">
-        <v>1500.000078490523</v>
+        <v>1120.000032022701</v>
       </c>
       <c r="C169" t="n">
-        <v>1310.361753902585</v>
+        <v>-711.3210537749686</v>
       </c>
       <c r="D169" t="n">
-        <v>-10828.25810417311</v>
+        <v>-5294.552885782497</v>
       </c>
     </row>
     <row r="170">
@@ -3021,13 +3069,13 @@
         <v>2.638937829015418</v>
       </c>
       <c r="B170" t="n">
-        <v>1500.000048483798</v>
+        <v>1120.000034960604</v>
       </c>
       <c r="C170" t="n">
-        <v>1626.776357908895</v>
+        <v>-687.0869745446905</v>
       </c>
       <c r="D170" t="n">
-        <v>-11053.92598553788</v>
+        <v>-5309.137534085725</v>
       </c>
     </row>
     <row r="171">
@@ -3035,13 +3083,13 @@
         <v>2.654645792283367</v>
       </c>
       <c r="B171" t="n">
-        <v>1500.000033477845</v>
+        <v>1120.000038093348</v>
       </c>
       <c r="C171" t="n">
-        <v>1934.064514341901</v>
+        <v>-663.1747784504549</v>
       </c>
       <c r="D171" t="n">
-        <v>-11270.36385415579</v>
+        <v>-5323.213542697193</v>
       </c>
     </row>
     <row r="172">
@@ -3049,13 +3097,13 @@
         <v>2.670353755551316</v>
       </c>
       <c r="B172" t="n">
-        <v>1500.000083539757</v>
+        <v>1120.000041450187</v>
       </c>
       <c r="C172" t="n">
-        <v>2231.227366780517</v>
+        <v>-639.5654770108613</v>
       </c>
       <c r="D172" t="n">
-        <v>-11477.42566862275</v>
+        <v>-5336.807984170423</v>
       </c>
     </row>
     <row r="173">
@@ -3063,13 +3111,13 @@
         <v>2.686061718819265</v>
       </c>
       <c r="B173" t="n">
-        <v>1500.00006701976</v>
+        <v>1120.000045069594</v>
       </c>
       <c r="C173" t="n">
-        <v>2516.894282501219</v>
+        <v>-616.240899800169</v>
       </c>
       <c r="D173" t="n">
-        <v>-11674.79936475174</v>
+        <v>-5349.946084344465</v>
       </c>
     </row>
     <row r="174">
@@ -3077,13 +3125,13 @@
         <v>2.701769682087213</v>
       </c>
       <c r="B174" t="n">
-        <v>1500.000060212452</v>
+        <v>1120.000049006595</v>
       </c>
       <c r="C174" t="n">
-        <v>2789.187712546596</v>
+        <v>-593.183630946251</v>
       </c>
       <c r="D174" t="n">
-        <v>-11861.95501594898</v>
+        <v>-5362.651371405274</v>
       </c>
     </row>
     <row r="175">
@@ -3091,13 +3139,13 @@
         <v>2.717477645355162</v>
       </c>
       <c r="B175" t="n">
-        <v>1500.000060177688</v>
+        <v>1120.000053358936</v>
       </c>
       <c r="C175" t="n">
-        <v>3045.51708161175</v>
+        <v>-570.3769502514137</v>
       </c>
       <c r="D175" t="n">
-        <v>-12038.07615935734</v>
+        <v>-5374.945810651627</v>
       </c>
     </row>
     <row r="176">
@@ -3105,13 +3153,13 @@
         <v>2.733185608623111</v>
       </c>
       <c r="B176" t="n">
-        <v>1500.000067060833</v>
+        <v>1120.000058174799</v>
       </c>
       <c r="C176" t="n">
-        <v>3282.259738582999</v>
+        <v>-547.8047785034261</v>
       </c>
       <c r="D176" t="n">
-        <v>-12201.94821602536</v>
+        <v>-5386.849928027608</v>
       </c>
     </row>
     <row r="177">
@@ -3119,13 +3167,13 @@
         <v>2.74889357189106</v>
       </c>
       <c r="B177" t="n">
-        <v>1500.000082774142</v>
+        <v>1120.000063508639</v>
       </c>
       <c r="C177" t="n">
-        <v>3494.243192014188</v>
+        <v>-525.4516265186576</v>
       </c>
       <c r="D177" t="n">
-        <v>-12351.78085190726</v>
+        <v>-5398.382920702215</v>
       </c>
     </row>
     <row r="178">
@@ -3133,13 +3181,13 @@
         <v>2.764601535159009</v>
       </c>
       <c r="B178" t="n">
-        <v>1500.000096793524</v>
+        <v>1120.000069183556</v>
       </c>
       <c r="C178" t="n">
-        <v>3674.050107427563</v>
+        <v>-503.30254762166</v>
       </c>
       <c r="D178" t="n">
-        <v>-12484.99785433002</v>
+        <v>-5409.562760893414</v>
       </c>
     </row>
     <row r="179">
@@ -3147,13 +3195,13 @@
         <v>2.780309498426958</v>
       </c>
       <c r="B179" t="n">
-        <v>1500.000050705983</v>
+        <v>1120.000075176499</v>
       </c>
       <c r="C179" t="n">
-        <v>3838.239023967879</v>
+        <v>-481.3430930774568</v>
       </c>
       <c r="D179" t="n">
-        <v>-12610.47630904845</v>
+        <v>-5420.406283530011</v>
       </c>
     </row>
     <row r="180">
@@ -3161,13 +3209,13 @@
         <v>2.796017461694907</v>
       </c>
       <c r="B180" t="n">
-        <v>1500.00005655461</v>
+        <v>1120.000081497273</v>
       </c>
       <c r="C180" t="n">
-        <v>4002.775119955432</v>
+        <v>-459.559270360732</v>
       </c>
       <c r="D180" t="n">
-        <v>-12736.00485530825</v>
+        <v>-5430.92927152733</v>
       </c>
     </row>
     <row r="181">
@@ -3175,13 +3223,13 @@
         <v>2.811725424962856</v>
       </c>
       <c r="B181" t="n">
-        <v>1500.000063207456</v>
+        <v>1120.00008815739</v>
       </c>
       <c r="C181" t="n">
-        <v>4167.760590723909</v>
+        <v>-437.9375038831986</v>
       </c>
       <c r="D181" t="n">
-        <v>-12861.67011569484</v>
+        <v>-5441.14653269355</v>
       </c>
     </row>
     <row r="182">
@@ -3189,13 +3237,13 @@
         <v>2.827433388230804</v>
       </c>
       <c r="B182" t="n">
-        <v>1500.000070776106</v>
+        <v>1120.000095170802</v>
       </c>
       <c r="C182" t="n">
-        <v>4333.298608907277</v>
+        <v>-416.4645979386827</v>
       </c>
       <c r="D182" t="n">
-        <v>-12987.55836304801</v>
+        <v>-5451.071969648494</v>
       </c>
     </row>
     <row r="183">
@@ -3203,13 +3251,13 @@
         <v>2.843141351498753</v>
       </c>
       <c r="B183" t="n">
-        <v>1500.000079349535</v>
+        <v>1120.000025229388</v>
       </c>
       <c r="C183" t="n">
-        <v>4499.493833937538</v>
+        <v>-395.1277114004009</v>
       </c>
       <c r="D183" t="n">
-        <v>-13113.75652914105</v>
+        <v>-5460.719522820067</v>
       </c>
     </row>
     <row r="184">
@@ -3217,13 +3265,13 @@
         <v>2.858849314766702</v>
       </c>
       <c r="B184" t="n">
-        <v>1500.000090325497</v>
+        <v>1120.000099953824</v>
       </c>
       <c r="C184" t="n">
-        <v>4666.45269967435</v>
+        <v>-373.9142768894753</v>
       </c>
       <c r="D184" t="n">
-        <v>-13240.3524523372</v>
+        <v>-5470.098951584869</v>
       </c>
     </row>
     <row r="185">
@@ -3231,13 +3279,13 @@
         <v>2.874557278034651</v>
       </c>
       <c r="B185" t="n">
-        <v>1500.000050894738</v>
+        <v>1120.000095989641</v>
       </c>
       <c r="C185" t="n">
-        <v>4834.284006180651</v>
+        <v>-352.8120630103229</v>
       </c>
       <c r="D185" t="n">
-        <v>-13367.43597680033</v>
+        <v>-5479.224344890371</v>
       </c>
     </row>
     <row r="186">
@@ -3245,13 +3293,13 @@
         <v>2.8902652413026</v>
       </c>
       <c r="B186" t="n">
-        <v>1500.0000613616</v>
+        <v>1120.000092231268</v>
       </c>
       <c r="C186" t="n">
-        <v>5003.098173746421</v>
+        <v>-331.8090498512121</v>
       </c>
       <c r="D186" t="n">
-        <v>-13495.0961540255</v>
+        <v>-5488.105675777379</v>
       </c>
     </row>
     <row r="187">
@@ -3259,13 +3307,13 @@
         <v>2.905973204570549</v>
       </c>
       <c r="B187" t="n">
-        <v>1500.000088029785</v>
+        <v>1120.00008892538</v>
       </c>
       <c r="C187" t="n">
-        <v>5134.319353497404</v>
+        <v>-310.8934479317305</v>
       </c>
       <c r="D187" t="n">
-        <v>-13590.29674594971</v>
+        <v>-5496.753176653011</v>
       </c>
     </row>
     <row r="188">
@@ -3273,13 +3321,13 @@
         <v>2.921681167838498</v>
       </c>
       <c r="B188" t="n">
-        <v>1500.000093374037</v>
+        <v>1120.000086401903</v>
       </c>
       <c r="C188" t="n">
-        <v>5225.953864173879</v>
+        <v>-290.0536602943105</v>
       </c>
       <c r="D188" t="n">
-        <v>-13651.44629175512</v>
+        <v>-5505.176485719745</v>
       </c>
     </row>
     <row r="189">
@@ -3287,13 +3335,13 @@
         <v>2.937389131106447</v>
       </c>
       <c r="B189" t="n">
-        <v>1500.000099251035</v>
+        <v>1120.000084924272</v>
       </c>
       <c r="C189" t="n">
-        <v>5317.91625775146</v>
+        <v>-269.2782554776094</v>
       </c>
       <c r="D189" t="n">
-        <v>-13712.75690516076</v>
+        <v>-5513.384686801919</v>
       </c>
     </row>
     <row r="190">
@@ -3301,13 +3349,13 @@
         <v>2.953097094374395</v>
       </c>
       <c r="B190" t="n">
-        <v>1500.000055787714</v>
+        <v>1120.000083355861</v>
       </c>
       <c r="C190" t="n">
-        <v>5410.258990651037</v>
+        <v>-248.5559413740448</v>
       </c>
       <c r="D190" t="n">
-        <v>-13774.26678419172</v>
+        <v>-5521.386359552864</v>
       </c>
     </row>
     <row r="191">
@@ -3315,13 +3363,13 @@
         <v>2.968805057642344</v>
       </c>
       <c r="B191" t="n">
-        <v>1500.000059626598</v>
+        <v>1120.000081403733</v>
       </c>
       <c r="C191" t="n">
-        <v>5503.034295499744</v>
+        <v>-227.8755394198733</v>
       </c>
       <c r="D191" t="n">
-        <v>-13836.01213958786</v>
+        <v>-5529.189586274375</v>
       </c>
     </row>
     <row r="192">
@@ -3329,13 +3377,13 @@
         <v>2.984513020910293</v>
       </c>
       <c r="B192" t="n">
-        <v>1500.000064111644</v>
+        <v>1120.000079089011</v>
       </c>
       <c r="C192" t="n">
-        <v>5596.296463454554</v>
+        <v>-207.2259595959027</v>
       </c>
       <c r="D192" t="n">
-        <v>-13898.03212528779</v>
+        <v>-5536.801987683539</v>
       </c>
     </row>
     <row r="193">
@@ -3343,13 +3391,13 @@
         <v>3.000220984178242</v>
       </c>
       <c r="B193" t="n">
-        <v>1500.000068968455</v>
+        <v>1120.000076350006</v>
       </c>
       <c r="C193" t="n">
-        <v>5690.100574197855</v>
+        <v>-186.596175806464</v>
       </c>
       <c r="D193" t="n">
-        <v>-13960.36578252885</v>
+        <v>-5544.230754835899</v>
       </c>
     </row>
     <row r="194">
@@ -3357,13 +3405,13 @@
         <v>3.015928947446191</v>
       </c>
       <c r="B194" t="n">
-        <v>1500.000068886993</v>
+        <v>1120.00007317375</v>
       </c>
       <c r="C194" t="n">
-        <v>5784.503018884347</v>
+        <v>-165.9752014992731</v>
       </c>
       <c r="D194" t="n">
-        <v>-14023.05300377713</v>
+        <v>-5551.482672917991</v>
       </c>
     </row>
     <row r="195">
@@ -3371,13 +3419,13 @@
         <v>3.03163691071414</v>
       </c>
       <c r="B195" t="n">
-        <v>1500.000067367643</v>
+        <v>1120.000069879344</v>
       </c>
       <c r="C195" t="n">
-        <v>5879.561540833573</v>
+        <v>-145.3520654513166</v>
       </c>
       <c r="D195" t="n">
-        <v>-14086.13441072758</v>
+        <v>-5558.564141364017</v>
       </c>
     </row>
     <row r="196">
@@ -3385,13 +3433,13 @@
         <v>3.047344873982089</v>
       </c>
       <c r="B196" t="n">
-        <v>1500.000066615138</v>
+        <v>1120.000066910656</v>
       </c>
       <c r="C196" t="n">
-        <v>5975.335467491992</v>
+        <v>-124.715787639316</v>
       </c>
       <c r="D196" t="n">
-        <v>-14149.65163970775</v>
+        <v>-5565.48119773794</v>
       </c>
     </row>
     <row r="197">
@@ -3399,13 +3447,13 @@
         <v>3.063052837250038</v>
       </c>
       <c r="B197" t="n">
-        <v>1500.000072185556</v>
+        <v>1120.00006476871</v>
       </c>
       <c r="C197" t="n">
-        <v>6071.885837276702</v>
+        <v>-104.0553550320473</v>
       </c>
       <c r="D197" t="n">
-        <v>-14213.64738452491</v>
+        <v>-5572.239538376828</v>
       </c>
     </row>
     <row r="198">
@@ -3413,13 +3461,13 @@
         <v>3.078760800517987</v>
       </c>
       <c r="B198" t="n">
-        <v>1500.000089996867</v>
+        <v>1120.000064483961</v>
       </c>
       <c r="C198" t="n">
-        <v>6096.604047173167</v>
+        <v>-83.35969718203134</v>
       </c>
       <c r="D198" t="n">
-        <v>-14230.40011397141</v>
+        <v>-5578.844531397091</v>
       </c>
     </row>
     <row r="199">
@@ -3427,13 +3475,13 @@
         <v>3.094468763785935</v>
       </c>
       <c r="B199" t="n">
-        <v>1500.00007947983</v>
+        <v>1120.00006554596</v>
       </c>
       <c r="C199" t="n">
-        <v>6103.127205257728</v>
+        <v>-62.61766159266882</v>
       </c>
       <c r="D199" t="n">
-        <v>-14235.1243753242</v>
+        <v>-5585.301257096251</v>
       </c>
     </row>
     <row r="200">
@@ -3441,13 +3489,13 @@
         <v>3.110176727053884</v>
       </c>
       <c r="B200" t="n">
-        <v>1500.000071222854</v>
+        <v>1120.000068792192</v>
       </c>
       <c r="C200" t="n">
-        <v>6109.650185790448</v>
+        <v>-41.81798849928782</v>
       </c>
       <c r="D200" t="n">
-        <v>-14239.77480852147</v>
+        <v>-5591.6144908908</v>
       </c>
     </row>
     <row r="201">
@@ -3455,13 +3503,13 @@
         <v>3.125884690321833</v>
       </c>
       <c r="B201" t="n">
-        <v>1500.000064306148</v>
+        <v>1120.000076496371</v>
       </c>
       <c r="C201" t="n">
-        <v>6116.176284508048</v>
+        <v>-20.94928524773394</v>
       </c>
       <c r="D201" t="n">
-        <v>-14244.35402168468</v>
+        <v>-5597.788716800491</v>
       </c>
     </row>
     <row r="202">
@@ -3469,13 +3517,13 @@
         <v>3.141592653589782</v>
       </c>
       <c r="B202" t="n">
-        <v>1500.000057782493</v>
+        <v>1120.000090526166</v>
       </c>
       <c r="C202" t="n">
-        <v>6122.708804157197</v>
+        <v>-1.514998919966664e-11</v>
       </c>
       <c r="D202" t="n">
-        <v>-14248.86448200189</v>
+        <v>-5603.828161679119</v>
       </c>
     </row>
     <row r="203">
@@ -3483,13 +3531,13 @@
         <v>3.157300616857731</v>
       </c>
       <c r="B203" t="n">
-        <v>1500.000056312314</v>
+        <v>1120.000076496371</v>
       </c>
       <c r="C203" t="n">
-        <v>6129.219019960416</v>
+        <v>20.94928524770399</v>
       </c>
       <c r="D203" t="n">
-        <v>-14223.67190169461</v>
+        <v>-5597.788716800496</v>
       </c>
     </row>
     <row r="204">
@@ -3497,13 +3545,13 @@
         <v>3.17300858012568</v>
       </c>
       <c r="B204" t="n">
-        <v>1500.000098118999</v>
+        <v>1120.000068792192</v>
       </c>
       <c r="C204" t="n">
-        <v>6135.679579299354</v>
+        <v>41.81798849925828</v>
       </c>
       <c r="D204" t="n">
-        <v>-14198.8171818458</v>
+        <v>-5591.614490890812</v>
       </c>
     </row>
     <row r="205">
@@ -3511,13 +3559,13 @@
         <v>3.188716543393629</v>
       </c>
       <c r="B205" t="n">
-        <v>1500.000097553161</v>
+        <v>1120.00006554596</v>
       </c>
       <c r="C205" t="n">
-        <v>6142.097052290501</v>
+        <v>62.61766159263974</v>
       </c>
       <c r="D205" t="n">
-        <v>-14174.28339372693</v>
+        <v>-5585.301257096255</v>
       </c>
     </row>
     <row r="206">
@@ -3525,13 +3573,13 @@
         <v>3.204424506661578</v>
       </c>
       <c r="B206" t="n">
-        <v>1500.000096237175</v>
+        <v>1120.000064483961</v>
       </c>
       <c r="C206" t="n">
-        <v>6148.476468059901</v>
+        <v>83.35969718200197</v>
       </c>
       <c r="D206" t="n">
-        <v>-14150.05178722843</v>
+        <v>-5578.844531397099</v>
       </c>
     </row>
     <row r="207">
@@ -3539,13 +3587,13 @@
         <v>3.220132469929526</v>
       </c>
       <c r="B207" t="n">
-        <v>1500.000093827656</v>
+        <v>1120.000064768711</v>
       </c>
       <c r="C207" t="n">
-        <v>6154.823084424381</v>
+        <v>104.0553550320178</v>
       </c>
       <c r="D207" t="n">
-        <v>-14126.1048795134</v>
+        <v>-5572.239538376842</v>
       </c>
     </row>
     <row r="208">
@@ -3553,13 +3601,13 @@
         <v>3.235840433197475</v>
       </c>
       <c r="B208" t="n">
-        <v>1500.000090532783</v>
+        <v>1120.000066910656</v>
       </c>
       <c r="C208" t="n">
-        <v>6161.141975031724</v>
+        <v>124.7157876392872</v>
       </c>
       <c r="D208" t="n">
-        <v>-14102.42563738785</v>
+        <v>-5565.48119773795</v>
       </c>
     </row>
     <row r="209">
@@ -3567,13 +3615,13 @@
         <v>3.251548396465424</v>
       </c>
       <c r="B209" t="n">
-        <v>1500.000086578947</v>
+        <v>1120.000069879344</v>
       </c>
       <c r="C209" t="n">
-        <v>6167.43805775162</v>
+        <v>145.3520654512876</v>
       </c>
       <c r="D209" t="n">
-        <v>-14078.99745459319</v>
+        <v>-5558.564141364026</v>
       </c>
     </row>
     <row r="210">
@@ -3581,13 +3629,13 @@
         <v>3.267256359733373</v>
       </c>
       <c r="B210" t="n">
-        <v>1500.000057494006</v>
+        <v>1120.00007317375</v>
       </c>
       <c r="C210" t="n">
-        <v>6177.413759758578</v>
+        <v>165.9752014992439</v>
       </c>
       <c r="D210" t="n">
-        <v>-14030.03767270422</v>
+        <v>-5551.482672918</v>
       </c>
     </row>
     <row r="211">
@@ -3595,13 +3643,13 @@
         <v>3.282964323001322</v>
       </c>
       <c r="B211" t="n">
-        <v>1500.000097112625</v>
+        <v>1120.000076350006</v>
       </c>
       <c r="C211" t="n">
-        <v>6188.331815202127</v>
+        <v>186.5961758064348</v>
       </c>
       <c r="D211" t="n">
-        <v>-13974.8995248469</v>
+        <v>-5544.230754835912</v>
       </c>
     </row>
     <row r="212">
@@ -3609,13 +3657,13 @@
         <v>3.298672286269271</v>
       </c>
       <c r="B212" t="n">
-        <v>1500.000086448085</v>
+        <v>1120.000079089011</v>
       </c>
       <c r="C212" t="n">
-        <v>6199.087255774143</v>
+        <v>207.2259595958723</v>
       </c>
       <c r="D212" t="n">
-        <v>-13921.32650942613</v>
+        <v>-5536.80198768355</v>
       </c>
     </row>
     <row r="213">
@@ -3623,13 +3671,13 @@
         <v>3.31438024953722</v>
       </c>
       <c r="B213" t="n">
-        <v>1500.000075417821</v>
+        <v>1120.000081403733</v>
       </c>
       <c r="C213" t="n">
-        <v>6209.693517448331</v>
+        <v>227.8755394198437</v>
       </c>
       <c r="D213" t="n">
-        <v>-13869.21798268753</v>
+        <v>-5529.18958627438</v>
       </c>
     </row>
     <row r="214">
@@ -3637,13 +3685,13 @@
         <v>3.330088212805169</v>
       </c>
       <c r="B214" t="n">
-        <v>1500.000062514453</v>
+        <v>1120.000083355861</v>
       </c>
       <c r="C214" t="n">
-        <v>6220.163796662637</v>
+        <v>248.5559413740149</v>
       </c>
       <c r="D214" t="n">
-        <v>-13818.48106270305</v>
+        <v>-5521.386359552876</v>
       </c>
     </row>
     <row r="215">
@@ -3651,13 +3699,13 @@
         <v>3.345796176073117</v>
       </c>
       <c r="B215" t="n">
-        <v>1500.00005161956</v>
+        <v>1120.000084924273</v>
       </c>
       <c r="C215" t="n">
-        <v>6230.510536883243</v>
+        <v>269.2782554775802</v>
       </c>
       <c r="D215" t="n">
-        <v>-13769.02905406071</v>
+        <v>-5513.38468680193</v>
       </c>
     </row>
     <row r="216">
@@ -3665,13 +3713,13 @@
         <v>3.361504139341066</v>
       </c>
       <c r="B216" t="n">
-        <v>1500.000081247215</v>
+        <v>1120.000086401903</v>
       </c>
       <c r="C216" t="n">
-        <v>6240.745196073532</v>
+        <v>290.0536602942802</v>
       </c>
       <c r="D216" t="n">
-        <v>-13720.78040668463</v>
+        <v>-5505.176485719755</v>
       </c>
     </row>
     <row r="217">
@@ -3679,13 +3727,13 @@
         <v>3.377212102609015</v>
       </c>
       <c r="B217" t="n">
-        <v>1500.000062881896</v>
+        <v>1120.00008892538</v>
       </c>
       <c r="C217" t="n">
-        <v>6250.880014466702</v>
+        <v>310.893447931701</v>
       </c>
       <c r="D217" t="n">
-        <v>-13673.66069582417</v>
+        <v>-5496.75317665303</v>
       </c>
     </row>
     <row r="218">
@@ -3693,13 +3741,13 @@
         <v>3.392920065876964</v>
       </c>
       <c r="B218" t="n">
-        <v>1500.00004847403</v>
+        <v>1120.000092231267</v>
       </c>
       <c r="C218" t="n">
-        <v>6260.925264320554</v>
+        <v>331.8090498511824</v>
       </c>
       <c r="D218" t="n">
-        <v>-13627.59798176858</v>
+        <v>-5488.105675777397</v>
       </c>
     </row>
     <row r="219">
@@ -3707,13 +3755,13 @@
         <v>3.408628029144913</v>
       </c>
       <c r="B219" t="n">
-        <v>1500.000079125263</v>
+        <v>1120.000095989641</v>
       </c>
       <c r="C219" t="n">
-        <v>6270.890897115955</v>
+        <v>352.8120630102937</v>
       </c>
       <c r="D219" t="n">
-        <v>-13582.52475148724</v>
+        <v>-5479.224344890381</v>
       </c>
     </row>
     <row r="220">
@@ -3721,13 +3769,13 @@
         <v>3.424335992412862</v>
       </c>
       <c r="B220" t="n">
-        <v>1500.000061132918</v>
+        <v>1120.000099953824</v>
       </c>
       <c r="C220" t="n">
-        <v>6280.787900171812</v>
+        <v>373.9142768894447</v>
       </c>
       <c r="D220" t="n">
-        <v>-13538.37939600462</v>
+        <v>-5470.098951584876</v>
       </c>
     </row>
     <row r="221">
@@ -3735,13 +3783,13 @@
         <v>3.440043955680811</v>
       </c>
       <c r="B221" t="n">
-        <v>1500.000047101669</v>
+        <v>1120.000025229388</v>
       </c>
       <c r="C221" t="n">
-        <v>6290.625387844647</v>
+        <v>395.1277114003706</v>
       </c>
       <c r="D221" t="n">
-        <v>-13495.10156360315</v>
+        <v>-5460.719522820075</v>
       </c>
     </row>
     <row r="222">
@@ -3749,13 +3797,13 @@
         <v>3.45575191894876</v>
       </c>
       <c r="B222" t="n">
-        <v>1500.000079768013</v>
+        <v>1120.000095170803</v>
       </c>
       <c r="C222" t="n">
-        <v>6300.412288992242</v>
+        <v>416.4645979386518</v>
       </c>
       <c r="D222" t="n">
-        <v>-13452.63423708204</v>
+        <v>-5451.071969648508</v>
       </c>
     </row>
     <row r="223">
@@ -3763,13 +3811,13 @@
         <v>3.471459882216708</v>
       </c>
       <c r="B223" t="n">
-        <v>1500.000061540176</v>
+        <v>1120.00008815739</v>
       </c>
       <c r="C223" t="n">
-        <v>6310.158762275453</v>
+        <v>437.9375038831668</v>
       </c>
       <c r="D223" t="n">
-        <v>-13410.92536916685</v>
+        <v>-5441.146532693561</v>
       </c>
     </row>
     <row r="224">
@@ -3777,13 +3825,13 @@
         <v>3.487167845484657</v>
       </c>
       <c r="B224" t="n">
-        <v>1500.000047199716</v>
+        <v>1120.000081497273</v>
       </c>
       <c r="C224" t="n">
-        <v>6319.873155370251</v>
+        <v>459.5592703607016</v>
       </c>
       <c r="D224" t="n">
-        <v>-13369.92322308344</v>
+        <v>-5430.929271527337</v>
       </c>
     </row>
     <row r="225">
@@ -3791,13 +3839,13 @@
         <v>3.502875808752606</v>
       </c>
       <c r="B225" t="n">
-        <v>1500.000044334339</v>
+        <v>1120.000075176499</v>
       </c>
       <c r="C225" t="n">
-        <v>6329.622654771349</v>
+        <v>481.343093077426</v>
       </c>
       <c r="D225" t="n">
-        <v>-13329.06894712747</v>
+        <v>-5420.406283530034</v>
       </c>
     </row>
     <row r="226">
@@ -3805,13 +3853,13 @@
         <v>3.518583772020555</v>
       </c>
       <c r="B226" t="n">
-        <v>1500.000059812482</v>
+        <v>1120.000069183556</v>
       </c>
       <c r="C226" t="n">
-        <v>6342.955133657818</v>
+        <v>503.3025476216295</v>
       </c>
       <c r="D226" t="n">
-        <v>-13257.5304837885</v>
+        <v>-5409.562760893434</v>
       </c>
     </row>
     <row r="227">
@@ -3819,13 +3867,13 @@
         <v>3.534291735288504</v>
       </c>
       <c r="B227" t="n">
-        <v>1500.000041943027</v>
+        <v>1120.000063508639</v>
       </c>
       <c r="C227" t="n">
-        <v>6356.202499792042</v>
+        <v>525.4516265186268</v>
       </c>
       <c r="D227" t="n">
-        <v>-13187.3922527723</v>
+        <v>-5398.382920702239</v>
       </c>
     </row>
     <row r="228">
@@ -3833,13 +3881,13 @@
         <v>3.549999698556453</v>
       </c>
       <c r="B228" t="n">
-        <v>1500.000077654253</v>
+        <v>1120.000058174799</v>
       </c>
       <c r="C228" t="n">
-        <v>6369.377003178923</v>
+        <v>547.8047785033943</v>
       </c>
       <c r="D228" t="n">
-        <v>-13118.56240247898</v>
+        <v>-5386.849928027628</v>
       </c>
     </row>
     <row r="229">
@@ -3847,13 +3895,13 @@
         <v>3.565707661824402</v>
       </c>
       <c r="B229" t="n">
-        <v>1500.000056035743</v>
+        <v>1120.000053358936</v>
       </c>
       <c r="C229" t="n">
-        <v>6382.492677363873</v>
+        <v>570.3769502513813</v>
       </c>
       <c r="D229" t="n">
-        <v>-13050.95635974832</v>
+        <v>-5374.945810651644</v>
       </c>
     </row>
     <row r="230">
@@ -3861,13 +3909,13 @@
         <v>3.581415625092351</v>
       </c>
       <c r="B230" t="n">
-        <v>1500.000040361291</v>
+        <v>1120.000049006595</v>
       </c>
       <c r="C230" t="n">
-        <v>6395.561425784304</v>
+        <v>593.1836309462196</v>
       </c>
       <c r="D230" t="n">
-        <v>-12984.49143426411</v>
+        <v>-5362.651371405293</v>
       </c>
     </row>
     <row r="231">
@@ -3875,13 +3923,13 @@
         <v>3.597123588360299</v>
       </c>
       <c r="B231" t="n">
-        <v>1500.000079426389</v>
+        <v>1120.000045069593</v>
       </c>
       <c r="C231" t="n">
-        <v>6408.595090335812</v>
+        <v>616.2408998001351</v>
       </c>
       <c r="D231" t="n">
-        <v>-12919.08891761622</v>
+        <v>-5349.946084344489</v>
       </c>
     </row>
     <row r="232">
@@ -3889,13 +3937,13 @@
         <v>3.612831551628248</v>
       </c>
       <c r="B232" t="n">
-        <v>1500.000057597244</v>
+        <v>1120.000041450187</v>
       </c>
       <c r="C232" t="n">
-        <v>6421.607105568977</v>
+        <v>639.565477010828</v>
       </c>
       <c r="D232" t="n">
-        <v>-12854.67564357504</v>
+        <v>-5336.807984170443</v>
       </c>
     </row>
     <row r="233">
@@ -3903,13 +3951,13 @@
         <v>3.628539514896197</v>
       </c>
       <c r="B233" t="n">
-        <v>1500.000052491542</v>
+        <v>1120.000038093348</v>
       </c>
       <c r="C233" t="n">
-        <v>6433.450703824064</v>
+        <v>663.1747784504223</v>
       </c>
       <c r="D233" t="n">
-        <v>-12783.19892485066</v>
+        <v>-5323.213542697211</v>
       </c>
     </row>
     <row r="234">
@@ -3917,13 +3965,13 @@
         <v>3.644247478164146</v>
       </c>
       <c r="B234" t="n">
-        <v>1500.000033065891</v>
+        <v>1120.000034960604</v>
       </c>
       <c r="C234" t="n">
-        <v>6443.494278181655</v>
+        <v>687.0869745446562</v>
       </c>
       <c r="D234" t="n">
-        <v>-12700.19409059394</v>
+        <v>-5309.137534085746</v>
       </c>
     </row>
     <row r="235">
@@ -3931,13 +3979,13 @@
         <v>3.659955441432095</v>
       </c>
       <c r="B235" t="n">
-        <v>1500.000071356627</v>
+        <v>1120.0000320227</v>
       </c>
       <c r="C235" t="n">
-        <v>6453.598366072421</v>
+        <v>711.3210537749334</v>
       </c>
       <c r="D235" t="n">
-        <v>-12618.34880359815</v>
+        <v>-5294.55288578253</v>
       </c>
     </row>
     <row r="236">
@@ -3945,13 +3993,13 @@
         <v>3.675663404700044</v>
       </c>
       <c r="B236" t="n">
-        <v>1500.000048336418</v>
+        <v>1120.000029257737</v>
       </c>
       <c r="C236" t="n">
-        <v>6463.773819091205</v>
+        <v>735.8968913136905</v>
       </c>
       <c r="D236" t="n">
-        <v>-12537.57518094418</v>
+        <v>-5279.430513612568</v>
       </c>
     </row>
     <row r="237">
@@ -3959,13 +4007,13 @@
         <v>3.691371367967993</v>
       </c>
       <c r="B237" t="n">
-        <v>1500.000032102193</v>
+        <v>1120.000026649645</v>
       </c>
       <c r="C237" t="n">
-        <v>6474.029718799101</v>
+        <v>760.8353233618056</v>
       </c>
       <c r="D237" t="n">
-        <v>-12457.78628411472</v>
+        <v>-5263.739139146723</v>
       </c>
     </row>
     <row r="238">
@@ -3973,13 +4021,13 @@
         <v>3.707079331235942</v>
       </c>
       <c r="B238" t="n">
-        <v>1500.000075887706</v>
+        <v>1120.000024186932</v>
       </c>
       <c r="C238" t="n">
-        <v>6484.375545285347</v>
+        <v>786.1582278236745</v>
       </c>
       <c r="D238" t="n">
-        <v>-12378.8981201378</v>
+        <v>-5247.445087132381</v>
       </c>
     </row>
     <row r="239">
@@ -3987,13 +4035,13 @@
         <v>3.72278729450389</v>
       </c>
       <c r="B239" t="n">
-        <v>1500.000051094171</v>
+        <v>1120.000021952327</v>
       </c>
       <c r="C239" t="n">
-        <v>6494.822978201602</v>
+        <v>811.8886120122515</v>
       </c>
       <c r="D239" t="n">
-        <v>-12300.83121941109</v>
+        <v>-5230.512059421834</v>
       </c>
     </row>
     <row r="240">
@@ -4001,13 +4049,13 @@
         <v>3.738495257771839</v>
       </c>
       <c r="B240" t="n">
-        <v>1500.000033728664</v>
+        <v>1120.000020056091</v>
       </c>
       <c r="C240" t="n">
-        <v>6505.381874347086</v>
+        <v>838.0507082401698</v>
       </c>
       <c r="D240" t="n">
-        <v>-12223.50568750588</v>
+        <v>-5212.900885328419</v>
       </c>
     </row>
     <row r="241">
@@ -4015,13 +4063,13 @@
         <v>3.754203221039788</v>
       </c>
       <c r="B241" t="n">
-        <v>1500.000086171314</v>
+        <v>1120.000096853634</v>
       </c>
       <c r="C241" t="n">
-        <v>6516.062613364892</v>
+        <v>864.6700594423294</v>
       </c>
       <c r="D241" t="n">
-        <v>-12146.84342522875</v>
+        <v>-5194.568346756789</v>
       </c>
     </row>
     <row r="242">
@@ -4029,13 +4077,13 @@
         <v>3.769911184307737</v>
       </c>
       <c r="B242" t="n">
-        <v>1500.000056329082</v>
+        <v>1120.000090773181</v>
       </c>
       <c r="C242" t="n">
-        <v>6526.878262589333</v>
+        <v>891.7737089978959</v>
       </c>
       <c r="D242" t="n">
-        <v>-12070.77012893163</v>
+        <v>-5175.470510041308</v>
       </c>
     </row>
     <row r="243">
@@ -4043,13 +4091,13 @@
         <v>3.785619147575686</v>
       </c>
       <c r="B243" t="n">
-        <v>1500.000036101525</v>
+        <v>1120.000085658993</v>
       </c>
       <c r="C243" t="n">
-        <v>6537.839806518398</v>
+        <v>919.3902109227652</v>
       </c>
       <c r="D243" t="n">
-        <v>-11995.20953125408</v>
+        <v>-5155.556820310074</v>
       </c>
     </row>
     <row r="244">
@@ -4057,13 +4105,13 @@
         <v>3.801327110843635</v>
       </c>
       <c r="B244" t="n">
-        <v>1500.000022506694</v>
+        <v>1120.000088532469</v>
       </c>
       <c r="C244" t="n">
-        <v>6548.959772399798</v>
+        <v>947.5357846420103</v>
       </c>
       <c r="D244" t="n">
-        <v>-11920.08703488896</v>
+        <v>-5134.785134633603</v>
       </c>
     </row>
     <row r="245">
@@ -4071,13 +4119,13 @@
         <v>3.817035074111584</v>
       </c>
       <c r="B245" t="n">
-        <v>1500.000063768747</v>
+        <v>1120.000021740615</v>
       </c>
       <c r="C245" t="n">
-        <v>6560.250756533173</v>
+        <v>975.5854938904174</v>
       </c>
       <c r="D245" t="n">
-        <v>-11845.32762723736</v>
+        <v>-5113.658118136798</v>
       </c>
     </row>
     <row r="246">
@@ -4085,13 +4133,13 @@
         <v>3.832743037379533</v>
       </c>
       <c r="B246" t="n">
-        <v>1500.000039021869</v>
+        <v>1120.000028865116</v>
       </c>
       <c r="C246" t="n">
-        <v>6571.727811230277</v>
+        <v>1003.228226231776</v>
       </c>
       <c r="D246" t="n">
-        <v>-11770.85809220609</v>
+        <v>-5092.444728914951</v>
       </c>
     </row>
     <row r="247">
@@ -4099,13 +4147,13 @@
         <v>3.848451000647481</v>
       </c>
       <c r="B247" t="n">
-        <v>1500.000022990314</v>
+        <v>1120.000037607642</v>
       </c>
       <c r="C247" t="n">
-        <v>6583.404683475397</v>
+        <v>1030.515049894367</v>
       </c>
       <c r="D247" t="n">
-        <v>-11696.60233722941</v>
+        <v>-5071.117053140093</v>
       </c>
     </row>
     <row r="248">
@@ -4113,13 +4161,13 @@
         <v>3.86415896391543</v>
       </c>
       <c r="B248" t="n">
-        <v>1500.000071638421</v>
+        <v>1120.00004816675</v>
       </c>
       <c r="C248" t="n">
-        <v>6595.296153234</v>
+        <v>1057.494185984479</v>
       </c>
       <c r="D248" t="n">
-        <v>-11622.48350171273</v>
+        <v>-5049.645789278276</v>
       </c>
     </row>
     <row r="249">
@@ -4127,13 +4175,13 @@
         <v>3.879866927183379</v>
       </c>
       <c r="B249" t="n">
-        <v>1500.000040937548</v>
+        <v>1120.000060736158</v>
       </c>
       <c r="C249" t="n">
-        <v>6607.420030371908</v>
+        <v>1084.211415840047</v>
       </c>
       <c r="D249" t="n">
-        <v>-11548.4256483165</v>
+        <v>-5028.000898035565</v>
       </c>
     </row>
     <row r="250">
@@ -4141,13 +4189,13 @@
         <v>3.895574890451328</v>
       </c>
       <c r="B250" t="n">
-        <v>1500.00002217187</v>
+        <v>1120.000075499972</v>
       </c>
       <c r="C250" t="n">
-        <v>6619.792676763375</v>
+        <v>1110.71043081735</v>
       </c>
       <c r="D250" t="n">
-        <v>-11474.34818685576</v>
+        <v>-5006.151413740386</v>
       </c>
     </row>
     <row r="251">
@@ -4155,13 +4203,13 @@
         <v>3.911282853719277</v>
       </c>
       <c r="B251" t="n">
-        <v>1500.000076975781</v>
+        <v>1120.000092786694</v>
       </c>
       <c r="C251" t="n">
-        <v>6632.431905009521</v>
+        <v>1137.033150324837</v>
       </c>
       <c r="D251" t="n">
-        <v>-11400.1684777167</v>
+        <v>-4984.065243146708</v>
       </c>
     </row>
     <row r="252">
@@ -4169,13 +4217,13 @@
         <v>3.926990816987226</v>
       </c>
       <c r="B252" t="n">
-        <v>1500.000039488416</v>
+        <v>1120.00002475898</v>
       </c>
       <c r="C252" t="n">
-        <v>6645.359182056392</v>
+        <v>1163.220114088655</v>
       </c>
       <c r="D252" t="n">
-        <v>-11325.80360416978</v>
+        <v>-4961.709897489456</v>
       </c>
     </row>
     <row r="253">
@@ -4183,13 +4231,13 @@
         <v>3.942698780255175</v>
       </c>
       <c r="B253" t="n">
-        <v>1500.000018622233</v>
+        <v>1120.000036743811</v>
       </c>
       <c r="C253" t="n">
-        <v>6658.594486650296</v>
+        <v>1192.303887584695</v>
       </c>
       <c r="D253" t="n">
-        <v>-11251.1638626473</v>
+        <v>-4922.324537342382</v>
       </c>
     </row>
     <row r="254">
@@ -4197,13 +4245,13 @@
         <v>3.958406743523124</v>
       </c>
       <c r="B254" t="n">
-        <v>1500.000072729388</v>
+        <v>1120.00004060814</v>
       </c>
       <c r="C254" t="n">
-        <v>6672.159885138813</v>
+        <v>1222.788647076467</v>
       </c>
       <c r="D254" t="n">
-        <v>-11176.15590411229</v>
+        <v>-4873.713097280013</v>
       </c>
     </row>
     <row r="255">
@@ -4211,13 +4259,13 @@
         <v>3.974114706791072</v>
       </c>
       <c r="B255" t="n">
-        <v>1500.000030663715</v>
+        <v>1120.000046820662</v>
       </c>
       <c r="C255" t="n">
-        <v>6686.081585145238</v>
+        <v>1253.109757221396</v>
       </c>
       <c r="D255" t="n">
-        <v>-11100.68408556013</v>
+        <v>-4824.655443820731</v>
       </c>
     </row>
     <row r="256">
@@ -4225,13 +4273,13 @@
         <v>3.989822670059021</v>
       </c>
       <c r="B256" t="n">
-        <v>1500.000011042721</v>
+        <v>1120.000053452563</v>
       </c>
       <c r="C256" t="n">
-        <v>6700.384674063669</v>
+        <v>1283.308998250329</v>
       </c>
       <c r="D256" t="n">
-        <v>-11024.64350098017</v>
+        <v>-4775.104468769973</v>
       </c>
     </row>
     <row r="257">
@@ -4239,13 +4287,13 @@
         <v>4.005530633326971</v>
       </c>
       <c r="B257" t="n">
-        <v>1500.000047408836</v>
+        <v>1120.000062366153</v>
       </c>
       <c r="C257" t="n">
-        <v>6715.097279958671</v>
+        <v>1313.427215770135</v>
       </c>
       <c r="D257" t="n">
-        <v>-10947.92341958546</v>
+        <v>-4725.010998091925</v>
       </c>
     </row>
     <row r="258">
@@ -4253,13 +4301,13 @@
         <v>4.02123859659492</v>
       </c>
       <c r="B258" t="n">
-        <v>1500.00001244009</v>
+        <v>1120.000072431083</v>
       </c>
       <c r="C258" t="n">
-        <v>6730.251617450216</v>
+        <v>1343.504565784285</v>
       </c>
       <c r="D258" t="n">
-        <v>-10870.40707893159</v>
+        <v>-4674.323568258274</v>
       </c>
     </row>
     <row r="259">
@@ -4267,13 +4315,13 @@
         <v>4.036946559862868</v>
       </c>
       <c r="B259" t="n">
-        <v>1500.000053935681</v>
+        <v>1120.000083511204</v>
       </c>
       <c r="C259" t="n">
-        <v>6745.879692975369</v>
+        <v>1373.580733093565</v>
       </c>
       <c r="D259" t="n">
-        <v>-10791.96525680927</v>
+        <v>-4622.988074028823</v>
       </c>
     </row>
     <row r="260">
@@ -4281,13 +4329,13 @@
         <v>4.052654523130817</v>
       </c>
       <c r="B260" t="n">
-        <v>1500.000005188802</v>
+        <v>1120.000095390975</v>
       </c>
       <c r="C260" t="n">
-        <v>6762.019822646576</v>
+        <v>1403.695152474259</v>
       </c>
       <c r="D260" t="n">
-        <v>-10712.46177538358</v>
+        <v>-4570.94742765155</v>
       </c>
     </row>
     <row r="261">
@@ -4295,13 +4343,13 @@
         <v>4.068362486398766</v>
       </c>
       <c r="B261" t="n">
-        <v>1500.000002746635</v>
+        <v>1120.000023276916</v>
       </c>
       <c r="C261" t="n">
-        <v>6778.710516555642</v>
+        <v>1433.887413253727</v>
       </c>
       <c r="D261" t="n">
-        <v>-10631.74447406825</v>
+        <v>-4518.141885725739</v>
       </c>
     </row>
     <row r="262">
@@ -4309,13 +4357,13 @@
         <v>4.084070449666715</v>
       </c>
       <c r="B262" t="n">
-        <v>1500.000000008707</v>
+        <v>1120.000026646646</v>
       </c>
       <c r="C262" t="n">
-        <v>6795.996013452555</v>
+        <v>1464.196751333994</v>
       </c>
       <c r="D262" t="n">
-        <v>-10549.64897994057</v>
+        <v>-4464.505797918382</v>
       </c>
     </row>
     <row r="263">
@@ -4323,13 +4371,13 @@
         <v>4.099778412934664</v>
       </c>
       <c r="B263" t="n">
-        <v>1500.000000033074</v>
+        <v>1120.000030213777</v>
       </c>
       <c r="C263" t="n">
-        <v>6813.924328204976</v>
+        <v>1494.663310532</v>
       </c>
       <c r="D263" t="n">
-        <v>-10465.99360576524</v>
+        <v>-4409.971216580787</v>
       </c>
     </row>
     <row r="264">
@@ -4337,13 +4385,13 @@
         <v>4.115486376202613</v>
       </c>
       <c r="B264" t="n">
-        <v>1500.000000040196</v>
+        <v>1120.000034052783</v>
       </c>
       <c r="C264" t="n">
-        <v>6832.548403632049</v>
+        <v>1525.327697467321</v>
       </c>
       <c r="D264" t="n">
-        <v>-10380.57724681968</v>
+        <v>-4354.464659282981</v>
       </c>
     </row>
     <row r="265">
@@ -4351,13 +4399,13 @@
         <v>4.131194339470562</v>
       </c>
       <c r="B265" t="n">
-        <v>1500.000000027466</v>
+        <v>1120.000038026402</v>
       </c>
       <c r="C265" t="n">
-        <v>6851.926680895705</v>
+        <v>1556.231374511049</v>
       </c>
       <c r="D265" t="n">
-        <v>-10293.17600357602</v>
+        <v>-4297.907110262503</v>
       </c>
     </row>
     <row r="266">
@@ -4365,13 +4413,13 @@
         <v>4.146902302738511</v>
       </c>
       <c r="B266" t="n">
-        <v>1500.000000009458</v>
+        <v>1120.000042073484</v>
       </c>
       <c r="C266" t="n">
-        <v>6872.123898775332</v>
+        <v>1587.416901762119</v>
       </c>
       <c r="D266" t="n">
-        <v>-10203.53931126274</v>
+        <v>-4240.213268882118</v>
       </c>
     </row>
     <row r="267">
@@ -4379,13 +4427,13 @@
         <v>4.162610266006459</v>
       </c>
       <c r="B267" t="n">
-        <v>1500.000027960238</v>
+        <v>1120.000046123705</v>
       </c>
       <c r="C267" t="n">
-        <v>6893.21170243809</v>
+        <v>1618.928194574735</v>
       </c>
       <c r="D267" t="n">
-        <v>-10111.38492445933</v>
+        <v>-4181.290683156723</v>
       </c>
     </row>
     <row r="268">
@@ -4393,13 +4441,13 @@
         <v>4.178318229274408</v>
       </c>
       <c r="B268" t="n">
-        <v>1500.000032012835</v>
+        <v>1120.000050095776</v>
       </c>
       <c r="C268" t="n">
-        <v>6915.27083382606</v>
+        <v>1650.810799458441</v>
       </c>
       <c r="D268" t="n">
-        <v>-10016.39458167055</v>
+        <v>-4121.038740312169</v>
       </c>
     </row>
     <row r="269">
@@ -4407,13 +4455,13 @@
         <v>4.194026192542357</v>
       </c>
       <c r="B269" t="n">
-        <v>1500.000000132247</v>
+        <v>1120.000053904504</v>
       </c>
       <c r="C269" t="n">
-        <v>6938.391128870788</v>
+        <v>1683.11219294895</v>
       </c>
       <c r="D269" t="n">
-        <v>-9918.205733042991</v>
+        <v>-4059.34748498648</v>
       </c>
     </row>
     <row r="270">
@@ -4421,13 +4469,13 @@
         <v>4.209734155810306</v>
       </c>
       <c r="B270" t="n">
-        <v>1500.000000602648</v>
+        <v>1120.000057528482</v>
       </c>
       <c r="C270" t="n">
-        <v>6962.6725801182</v>
+        <v>1715.88210840729</v>
       </c>
       <c r="D270" t="n">
-        <v>-9816.402708490503</v>
+        <v>-3996.096227257082</v>
       </c>
     </row>
     <row r="271">
@@ -4435,13 +4483,13 @@
         <v>4.225442119078255</v>
       </c>
       <c r="B271" t="n">
-        <v>1500.000001630673</v>
+        <v>1120.000061473519</v>
       </c>
       <c r="C271" t="n">
-        <v>6988.229000334279</v>
+        <v>1749.172895663862</v>
       </c>
       <c r="D271" t="n">
-        <v>-9710.508689315349</v>
+        <v>-3931.151891162418</v>
       </c>
     </row>
     <row r="272">
@@ -4449,13 +4497,13 @@
         <v>4.241150082346204</v>
       </c>
       <c r="B272" t="n">
-        <v>1500.000003416361</v>
+        <v>1120.000065168237</v>
       </c>
       <c r="C272" t="n">
-        <v>7015.188765305479</v>
+        <v>1783.039928230317</v>
       </c>
       <c r="D272" t="n">
-        <v>-9599.971483170026</v>
+        <v>-3864.367061767952</v>
       </c>
     </row>
     <row r="273">
@@ -4463,13 +4511,13 @@
         <v>4.256858045614153</v>
       </c>
       <c r="B273" t="n">
-        <v>1500.000006140229</v>
+        <v>1120.000068299303</v>
       </c>
       <c r="C273" t="n">
-        <v>7043.697715543887</v>
+        <v>1817.542051429233</v>
       </c>
       <c r="D273" t="n">
-        <v>-9484.148214411953</v>
+        <v>-3795.577618797377</v>
       </c>
     </row>
     <row r="274">
@@ -4477,13 +4525,13 @@
         <v>4.272566008882102</v>
       </c>
       <c r="B274" t="n">
-        <v>1500.000009956013</v>
+        <v>1120.000070722526</v>
       </c>
       <c r="C274" t="n">
-        <v>7073.922271466628</v>
+        <v>1852.742094641744</v>
       </c>
       <c r="D274" t="n">
-        <v>-9362.2856588492</v>
+        <v>-3724.599891771241</v>
       </c>
     </row>
     <row r="275">
@@ -4491,13 +4539,13 @@
         <v>4.28827397215005</v>
       </c>
       <c r="B275" t="n">
-        <v>1500.00001498133</v>
+        <v>1120.000072295828</v>
       </c>
       <c r="C275" t="n">
-        <v>7106.053239788639</v>
+        <v>1888.70745648347</v>
       </c>
       <c r="D275" t="n">
-        <v>-9233.49541566209</v>
+        <v>-3651.227200594012</v>
       </c>
     </row>
     <row r="276">
@@ -4505,13 +4553,13 @@
         <v>4.303981935417999</v>
       </c>
       <c r="B276" t="n">
-        <v>1500.000021286386</v>
+        <v>1120.000072927748</v>
       </c>
       <c r="C276" t="n">
-        <v>7140.310497149491</v>
+        <v>1925.51077746272</v>
       </c>
       <c r="D276" t="n">
-        <v>-9096.72230013437</v>
+        <v>-3575.225615528562</v>
       </c>
     </row>
     <row r="277">
@@ -4519,13 +4567,13 @@
         <v>4.319689898685948</v>
       </c>
       <c r="B277" t="n">
-        <v>1500.000029301612</v>
+        <v>1120.000075740774</v>
       </c>
       <c r="C277" t="n">
-        <v>7176.948792109075</v>
+        <v>1963.230708830316</v>
       </c>
       <c r="D277" t="n">
-        <v>-8950.703742799073</v>
+        <v>-3496.328703544567</v>
       </c>
     </row>
     <row r="278">
@@ -4533,13 +4581,13 @@
         <v>4.335397861953897</v>
       </c>
       <c r="B278" t="n">
-        <v>1500.000019043776</v>
+        <v>1120.00007785881</v>
       </c>
       <c r="C278" t="n">
-        <v>7215.636306511098</v>
+        <v>2001.95285770901</v>
       </c>
       <c r="D278" t="n">
-        <v>-8795.556884875299</v>
+        <v>-3414.231067011859</v>
       </c>
     </row>
     <row r="279">
@@ -4547,13 +4595,13 @@
         <v>4.351105825221846</v>
       </c>
       <c r="B279" t="n">
-        <v>1500.000084010279</v>
+        <v>1120.000061153344</v>
       </c>
       <c r="C279" t="n">
-        <v>7254.452909391654</v>
+        <v>2040.416371322743</v>
       </c>
       <c r="D279" t="n">
-        <v>-8635.662648013036</v>
+        <v>-3327.827991485929</v>
       </c>
     </row>
     <row r="280">
@@ -4561,13 +4609,13 @@
         <v>4.366813788489795</v>
       </c>
       <c r="B280" t="n">
-        <v>1500.000002730753</v>
+        <v>1120.000056619907</v>
       </c>
       <c r="C280" t="n">
-        <v>7293.305787019402</v>
+        <v>2074.281002548309</v>
       </c>
       <c r="D280" t="n">
-        <v>-8470.890204975774</v>
+        <v>-3234.508301507692</v>
       </c>
     </row>
     <row r="281">
@@ -4575,13 +4623,13 @@
         <v>4.382521751757744</v>
       </c>
       <c r="B281" t="n">
-        <v>1500.000004109387</v>
+        <v>1120.000051223105</v>
       </c>
       <c r="C281" t="n">
-        <v>7332.273010963063</v>
+        <v>2109.01655244896</v>
       </c>
       <c r="D281" t="n">
-        <v>-8300.580098604743</v>
+        <v>-3136.996380163062</v>
       </c>
     </row>
     <row r="282">
@@ -4589,13 +4637,13 @@
         <v>4.398229715025693</v>
       </c>
       <c r="B282" t="n">
-        <v>1500.00001232782</v>
+        <v>1120.000045116084</v>
       </c>
       <c r="C282" t="n">
-        <v>7371.443752248704</v>
+        <v>2144.715581515557</v>
       </c>
       <c r="D282" t="n">
-        <v>-8123.960178194719</v>
+        <v>-3034.787106044773</v>
       </c>
     </row>
     <row r="283">
@@ -4603,13 +4651,13 @@
         <v>4.413937678293641</v>
       </c>
       <c r="B283" t="n">
-        <v>1500.000009383255</v>
+        <v>1120.000038528468</v>
       </c>
       <c r="C283" t="n">
-        <v>7410.536735047221</v>
+        <v>2181.48133417236</v>
       </c>
       <c r="D283" t="n">
-        <v>-7934.702591252067</v>
+        <v>-2927.280500476641</v>
       </c>
     </row>
     <row r="284">
@@ -4617,13 +4665,13 @@
         <v>4.42964564156159</v>
       </c>
       <c r="B284" t="n">
-        <v>1500.000006027694</v>
+        <v>1120.000031714198</v>
       </c>
       <c r="C284" t="n">
-        <v>7449.778431707315</v>
+        <v>2219.429818710537</v>
       </c>
       <c r="D284" t="n">
-        <v>-7736.482999174359</v>
+        <v>-2813.756450674744</v>
       </c>
     </row>
     <row r="285">
@@ -4631,13 +4679,13 @@
         <v>4.445353604829539</v>
       </c>
       <c r="B285" t="n">
-        <v>1500.000081197885</v>
+        <v>1120.000024955755</v>
       </c>
       <c r="C285" t="n">
-        <v>7489.345595254797</v>
+        <v>2258.692418478754</v>
       </c>
       <c r="D285" t="n">
-        <v>-7529.331139179752</v>
+        <v>-2693.340766401225</v>
       </c>
     </row>
     <row r="286">
@@ -4645,13 +4693,13 @@
         <v>4.461061568097488</v>
       </c>
       <c r="B286" t="n">
-        <v>1500.000065336209</v>
+        <v>1120.000080007272</v>
       </c>
       <c r="C286" t="n">
-        <v>7529.364906405062</v>
+        <v>2299.418907084159</v>
       </c>
       <c r="D286" t="n">
-        <v>-7311.733412123493</v>
+        <v>-2564.958692481746</v>
       </c>
     </row>
     <row r="287">
@@ -4659,13 +4707,13 @@
         <v>4.476769531365437</v>
       </c>
       <c r="B287" t="n">
-        <v>1500.000033812207</v>
+        <v>1120.000057571659</v>
       </c>
       <c r="C287" t="n">
-        <v>7569.979125307542</v>
+        <v>2341.783044481984</v>
       </c>
       <c r="D287" t="n">
-        <v>-7081.809982377475</v>
+        <v>-2427.271625019853</v>
       </c>
     </row>
     <row r="288">
@@ -4673,13 +4721,13 @@
         <v>4.492477494633386</v>
       </c>
       <c r="B288" t="n">
-        <v>1500.000004570498</v>
+        <v>1120.000038237803</v>
       </c>
       <c r="C288" t="n">
-        <v>7611.355573060924</v>
+        <v>2385.986117318268</v>
       </c>
       <c r="D288" t="n">
-        <v>-6837.198289945144</v>
+        <v>-2278.584951586707</v>
       </c>
     </row>
     <row r="289">
@@ -4687,13 +4735,13 @@
         <v>4.508185457901335</v>
       </c>
       <c r="B289" t="n">
-        <v>1500.000001682401</v>
+        <v>1120.000022862736</v>
       </c>
       <c r="C289" t="n">
-        <v>7653.456074446003</v>
+        <v>2432.265926829676</v>
       </c>
       <c r="D289" t="n">
-        <v>-6575.987505375986</v>
+        <v>-2116.718307382411</v>
       </c>
     </row>
     <row r="290">
@@ -4701,13 +4749,13 @@
         <v>4.523893421169284</v>
       </c>
       <c r="B290" t="n">
-        <v>1500.000001450614</v>
+        <v>1120.000084531781</v>
       </c>
       <c r="C290" t="n">
-        <v>7693.126814087937</v>
+        <v>2480.672205941926</v>
       </c>
       <c r="D290" t="n">
-        <v>-6311.190243557527</v>
+        <v>-1939.923018638233</v>
       </c>
     </row>
     <row r="291">
@@ -4715,13 +4763,13 @@
         <v>4.539601384437232</v>
       </c>
       <c r="B291" t="n">
-        <v>1500.000001123454</v>
+        <v>1120.000024764335</v>
       </c>
       <c r="C291" t="n">
-        <v>7729.379237416403</v>
+        <v>2528.843672369052</v>
       </c>
       <c r="D291" t="n">
-        <v>-6047.439018705612</v>
+        <v>-1758.121938587431</v>
       </c>
     </row>
     <row r="292">
@@ -4729,13 +4777,13 @@
         <v>4.555309347705181</v>
       </c>
       <c r="B292" t="n">
-        <v>1500.000000717185</v>
+        <v>1120.000038275874</v>
       </c>
       <c r="C292" t="n">
-        <v>7762.287491837091</v>
+        <v>2576.16029016084</v>
       </c>
       <c r="D292" t="n">
-        <v>-5784.594242469606</v>
+        <v>-1574.31168909173</v>
       </c>
     </row>
     <row r="293">
@@ -4743,13 +4791,13 @@
         <v>4.57101731097313</v>
       </c>
       <c r="B293" t="n">
-        <v>1500.000059487556</v>
+        <v>1120.00006225505</v>
       </c>
       <c r="C293" t="n">
-        <v>7791.917515159607</v>
+        <v>2622.716879319841</v>
       </c>
       <c r="D293" t="n">
-        <v>-5522.517795638903</v>
+        <v>-1388.259547286535</v>
       </c>
     </row>
     <row r="294">
@@ -4757,13 +4805,13 @@
         <v>4.586725274241079</v>
       </c>
       <c r="B294" t="n">
-        <v>1500.000024322022</v>
+        <v>1120.00008060302</v>
       </c>
       <c r="C294" t="n">
-        <v>7818.33070074086</v>
+        <v>2654.193324184018</v>
       </c>
       <c r="D294" t="n">
-        <v>-5261.074666505408</v>
+        <v>-1218.612007112039</v>
       </c>
     </row>
     <row r="295">
@@ -4771,13 +4819,13 @@
         <v>4.602433237509028</v>
       </c>
       <c r="B295" t="n">
-        <v>1500.000014944359</v>
+        <v>1120.000029932736</v>
       </c>
       <c r="C295" t="n">
-        <v>7841.578137774744</v>
+        <v>2665.794939996439</v>
       </c>
       <c r="D295" t="n">
-        <v>-5000.12920289531</v>
+        <v>-1071.733189651117</v>
       </c>
     </row>
     <row r="296">
@@ -4785,13 +4833,13 @@
         <v>4.618141200776977</v>
       </c>
       <c r="B296" t="n">
-        <v>1500.00000914283</v>
+        <v>1120.000039701461</v>
       </c>
       <c r="C296" t="n">
-        <v>7861.705985123626</v>
+        <v>2675.803223373427</v>
       </c>
       <c r="D296" t="n">
-        <v>-4739.54778642361</v>
+        <v>-923.6251536869071</v>
       </c>
     </row>
     <row r="297">
@@ -4799,13 +4847,13 @@
         <v>4.633849164044926</v>
       </c>
       <c r="B297" t="n">
-        <v>1500.000005237362</v>
+        <v>1120.000052682468</v>
       </c>
       <c r="C297" t="n">
-        <v>7878.753653244631</v>
+        <v>2684.238587823795</v>
       </c>
       <c r="D297" t="n">
-        <v>-4479.197394199343</v>
+        <v>-774.1354378715544</v>
       </c>
     </row>
     <row r="298">
@@ -4813,13 +4861,13 @@
         <v>4.649557127312875</v>
       </c>
       <c r="B298" t="n">
-        <v>1500.000002750255</v>
+        <v>1120.000070042293</v>
       </c>
       <c r="C298" t="n">
-        <v>7892.75421215926</v>
+        <v>2691.117869997202</v>
       </c>
       <c r="D298" t="n">
-        <v>-4218.945460744877</v>
+        <v>-623.1035208278827</v>
       </c>
     </row>
     <row r="299">
@@ -4827,13 +4875,13 @@
         <v>4.665265090580824</v>
       </c>
       <c r="B299" t="n">
-        <v>1500.000001280578</v>
+        <v>1120.000094860836</v>
       </c>
       <c r="C299" t="n">
-        <v>7903.734545635145</v>
+        <v>2696.454736973916</v>
       </c>
       <c r="D299" t="n">
-        <v>-3958.659612054156</v>
+        <v>-470.3597987048897</v>
       </c>
     </row>
     <row r="300">
@@ -4841,13 +4889,13 @@
         <v>4.680973053848772</v>
       </c>
       <c r="B300" t="n">
-        <v>1500.000000499493</v>
+        <v>1120.000042357115</v>
       </c>
       <c r="C300" t="n">
-        <v>7911.715464506271</v>
+        <v>2700.260277937097</v>
       </c>
       <c r="D300" t="n">
-        <v>-3698.20739250435</v>
+        <v>-315.7244284399651</v>
       </c>
     </row>
     <row r="301">
@@ -4855,13 +4903,13 @@
         <v>4.696681017116721</v>
       </c>
       <c r="B301" t="n">
-        <v>1500.000096088201</v>
+        <v>1120.000060035467</v>
       </c>
       <c r="C301" t="n">
-        <v>7916.710593798112</v>
+        <v>2702.541145961353</v>
       </c>
       <c r="D301" t="n">
-        <v>-3437.455337449056</v>
+        <v>-159.0059763564547</v>
       </c>
     </row>
     <row r="302">
@@ -4869,13 +4917,13 @@
         <v>4.71238898038467</v>
       </c>
       <c r="B302" t="n">
-        <v>1500.000025472763</v>
+        <v>1120.000090563025</v>
       </c>
       <c r="C302" t="n">
-        <v>7918.732116180063</v>
+        <v>2703.302187864253</v>
       </c>
       <c r="D302" t="n">
-        <v>-3176.27179511838</v>
+        <v>-2.01013148983163e-10</v>
       </c>
     </row>
     <row r="303">
@@ -4883,13 +4931,13 @@
         <v>4.728096943652619</v>
       </c>
       <c r="B303" t="n">
-        <v>1500.000000297806</v>
+        <v>1120.000060035467</v>
       </c>
       <c r="C303" t="n">
-        <v>7920.357795225328</v>
+        <v>2702.541145961358</v>
       </c>
       <c r="D303" t="n">
-        <v>-2916.892294121416</v>
+        <v>159.0059763560578</v>
       </c>
     </row>
     <row r="304">
@@ -4897,13 +4945,13 @@
         <v>4.743804906920568</v>
       </c>
       <c r="B304" t="n">
-        <v>1500.00000134524</v>
+        <v>1120.000042357115</v>
       </c>
       <c r="C304" t="n">
-        <v>7919.069618533349</v>
+        <v>2700.260277937105</v>
       </c>
       <c r="D304" t="n">
-        <v>-2656.123620040756</v>
+        <v>315.7244284395744</v>
       </c>
     </row>
     <row r="305">
@@ -4911,13 +4959,13 @@
         <v>4.759512870188517</v>
       </c>
       <c r="B305" t="n">
-        <v>1500.000003970958</v>
+        <v>1120.000094860836</v>
       </c>
       <c r="C305" t="n">
-        <v>7914.862200671798</v>
+        <v>2696.454736973928</v>
       </c>
       <c r="D305" t="n">
-        <v>-2393.799476959558</v>
+        <v>470.3597987045034</v>
       </c>
     </row>
     <row r="306">
@@ -4925,13 +4973,13 @@
         <v>4.775220833456466</v>
       </c>
       <c r="B306" t="n">
-        <v>1500.00000922568</v>
+        <v>1120.000070042293</v>
       </c>
       <c r="C306" t="n">
-        <v>7907.724104203364</v>
+        <v>2691.117869997219</v>
       </c>
       <c r="D306" t="n">
-        <v>-2129.748795212446</v>
+        <v>623.1035208274996</v>
       </c>
     </row>
     <row r="307">
@@ -4939,13 +4987,13 @@
         <v>4.790928796724415</v>
       </c>
       <c r="B307" t="n">
-        <v>1500.000018378196</v>
+        <v>1120.000052682468</v>
       </c>
       <c r="C307" t="n">
-        <v>7897.63811143636</v>
+        <v>2684.238587823813</v>
       </c>
       <c r="D307" t="n">
-        <v>-1863.795361692465</v>
+        <v>774.1354378711768</v>
       </c>
     </row>
     <row r="308">
@@ -4953,13 +5001,13 @@
         <v>4.806636759992363</v>
       </c>
       <c r="B308" t="n">
-        <v>1500.000032888098</v>
+        <v>1120.000039701461</v>
       </c>
       <c r="C308" t="n">
-        <v>7884.581153533105</v>
+        <v>2675.803223373448</v>
       </c>
       <c r="D308" t="n">
-        <v>-1595.757240871674</v>
+        <v>923.6251536865345</v>
       </c>
     </row>
     <row r="309">
@@ -4967,13 +5015,13 @@
         <v>4.822344723260312</v>
       </c>
       <c r="B309" t="n">
-        <v>1500.000069617145</v>
+        <v>1120.000029932736</v>
       </c>
       <c r="C309" t="n">
-        <v>7868.524024750992</v>
+        <v>2665.794939996465</v>
       </c>
       <c r="D309" t="n">
-        <v>-1325.446055759106</v>
+        <v>1071.733189650746</v>
       </c>
     </row>
     <row r="310">
@@ -4981,13 +5029,13 @@
         <v>4.838052686528261</v>
       </c>
       <c r="B310" t="n">
-        <v>1500.000000983725</v>
+        <v>1120.00008060302</v>
       </c>
       <c r="C310" t="n">
-        <v>7849.433258566805</v>
+        <v>2654.193324184051</v>
       </c>
       <c r="D310" t="n">
-        <v>-1052.6673465417</v>
+        <v>1218.612007111672</v>
       </c>
     </row>
     <row r="311">
@@ -4995,13 +5043,13 @@
         <v>4.85376064979621</v>
       </c>
       <c r="B311" t="n">
-        <v>1500.000001372297</v>
+        <v>1120.00006225505</v>
       </c>
       <c r="C311" t="n">
-        <v>7827.265403790998</v>
+        <v>2622.716879319957</v>
       </c>
       <c r="D311" t="n">
-        <v>-777.2169779112037</v>
+        <v>1388.259547286063</v>
       </c>
     </row>
     <row r="312">
@@ -5009,13 +5057,13 @@
         <v>4.869468613064159</v>
       </c>
       <c r="B312" t="n">
-        <v>1500.000001336984</v>
+        <v>1120.000038275875</v>
       </c>
       <c r="C312" t="n">
-        <v>7801.973670070167</v>
+        <v>2576.160290160956</v>
       </c>
       <c r="D312" t="n">
-        <v>-498.8838717290148</v>
+        <v>1574.311689091263</v>
       </c>
     </row>
     <row r="313">
@@ -5023,13 +5071,13 @@
         <v>4.885176576332108</v>
       </c>
       <c r="B313" t="n">
-        <v>1500.000000935079</v>
+        <v>1120.000024764335</v>
       </c>
       <c r="C313" t="n">
-        <v>7773.50381120183</v>
+        <v>2528.843672369173</v>
       </c>
       <c r="D313" t="n">
-        <v>-217.4471373146169</v>
+        <v>1758.121938586971</v>
       </c>
     </row>
     <row r="314">
@@ -5037,13 +5085,13 @@
         <v>4.900884539600057</v>
       </c>
       <c r="B314" t="n">
-        <v>1500.000000439462</v>
+        <v>1120.000084531781</v>
       </c>
       <c r="C314" t="n">
-        <v>7741.794759589723</v>
+        <v>2480.672205942047</v>
       </c>
       <c r="D314" t="n">
-        <v>67.32440858656827</v>
+        <v>1939.923018637779</v>
       </c>
     </row>
     <row r="315">
@@ -5051,13 +5099,13 @@
         <v>4.916592502868006</v>
       </c>
       <c r="B315" t="n">
-        <v>1500.000030864456</v>
+        <v>1120.000022862736</v>
       </c>
       <c r="C315" t="n">
-        <v>7706.777983120389</v>
+        <v>2432.265926829794</v>
       </c>
       <c r="D315" t="n">
-        <v>355.6734422142832</v>
+        <v>2116.718307381986</v>
       </c>
     </row>
     <row r="316">
@@ -5065,13 +5113,13 @@
         <v>4.932300466135954</v>
       </c>
       <c r="B316" t="n">
-        <v>1500.000001961308</v>
+        <v>1120.000038237803</v>
       </c>
       <c r="C316" t="n">
-        <v>7669.966517685735</v>
+        <v>2385.986117318383</v>
       </c>
       <c r="D316" t="n">
-        <v>635.2763492021235</v>
+        <v>2278.584951586317</v>
       </c>
     </row>
     <row r="317">
@@ -5079,13 +5127,13 @@
         <v>4.948008429403903</v>
       </c>
       <c r="B317" t="n">
-        <v>1500.00000026306</v>
+        <v>1120.000057571659</v>
       </c>
       <c r="C317" t="n">
-        <v>7632.912503495854</v>
+        <v>2341.783044482092</v>
       </c>
       <c r="D317" t="n">
-        <v>892.628365460641</v>
+        <v>2427.271625019494</v>
       </c>
     </row>
     <row r="318">
@@ -5093,13 +5141,13 @@
         <v>4.963716392671852</v>
       </c>
       <c r="B318" t="n">
-        <v>1500.000000418558</v>
+        <v>1120.000080007271</v>
       </c>
       <c r="C318" t="n">
-        <v>7597.117027601855</v>
+        <v>2299.418907084265</v>
       </c>
       <c r="D318" t="n">
-        <v>1134.983566584862</v>
+        <v>2564.958692481414</v>
       </c>
     </row>
     <row r="319">
@@ -5107,13 +5155,13 @@
         <v>4.979424355939801</v>
       </c>
       <c r="B319" t="n">
-        <v>1500.000003012733</v>
+        <v>1120.000024955755</v>
       </c>
       <c r="C319" t="n">
-        <v>7562.371805102817</v>
+        <v>2258.692418478854</v>
       </c>
       <c r="D319" t="n">
-        <v>1365.046964694785</v>
+        <v>2693.340766400913</v>
       </c>
     </row>
     <row r="320">
@@ -5121,13 +5169,13 @@
         <v>4.99513231920775</v>
       </c>
       <c r="B320" t="n">
-        <v>1500.000007791473</v>
+        <v>1120.000031714198</v>
       </c>
       <c r="C320" t="n">
-        <v>7528.498033906044</v>
+        <v>2219.429818710635</v>
       </c>
       <c r="D320" t="n">
-        <v>1584.979302787097</v>
+        <v>2813.756450674452</v>
       </c>
     </row>
     <row r="321">
@@ -5135,13 +5183,13 @@
         <v>5.010840282475699</v>
       </c>
       <c r="B321" t="n">
-        <v>1500.00001264172</v>
+        <v>1120.000038528468</v>
       </c>
       <c r="C321" t="n">
-        <v>7495.340266700827</v>
+        <v>2181.481334172454</v>
       </c>
       <c r="D321" t="n">
-        <v>1796.532187850623</v>
+        <v>2927.280500476364</v>
       </c>
     </row>
     <row r="322">
@@ -5149,13 +5197,13 @@
         <v>5.026548245743648</v>
       </c>
       <c r="B322" t="n">
-        <v>1500.000015331599</v>
+        <v>1120.000045116084</v>
       </c>
       <c r="C322" t="n">
-        <v>7462.761692656968</v>
+        <v>2144.71558151565</v>
       </c>
       <c r="D322" t="n">
-        <v>2001.144983900301</v>
+        <v>3034.787106044512</v>
       </c>
     </row>
     <row r="323">
@@ -5163,13 +5211,13 @@
         <v>5.042256209011597</v>
       </c>
       <c r="B323" t="n">
-        <v>1500.000014814157</v>
+        <v>1120.000051223106</v>
       </c>
       <c r="C323" t="n">
-        <v>7430.64046891451</v>
+        <v>2109.016552449046</v>
       </c>
       <c r="D323" t="n">
-        <v>2200.015583397453</v>
+        <v>3136.996380162808</v>
       </c>
     </row>
     <row r="324">
@@ -5177,13 +5225,13 @@
         <v>5.057964172279545</v>
       </c>
       <c r="B324" t="n">
-        <v>1500.000011505503</v>
+        <v>1120.000056619907</v>
       </c>
       <c r="C324" t="n">
-        <v>7398.866832091853</v>
+        <v>2074.281002548395</v>
       </c>
       <c r="D324" t="n">
-        <v>2394.152970865769</v>
+        <v>3234.508301507452</v>
       </c>
     </row>
     <row r="325">
@@ -5191,13 +5239,13 @@
         <v>5.073672135547494</v>
       </c>
       <c r="B325" t="n">
-        <v>1500.000006883293</v>
+        <v>1120.000061153344</v>
       </c>
       <c r="C325" t="n">
-        <v>7367.340790255981</v>
+        <v>2040.416371322829</v>
       </c>
       <c r="D325" t="n">
-        <v>2584.416861607426</v>
+        <v>3327.827991485702</v>
       </c>
     </row>
     <row r="326">
@@ -5205,13 +5253,13 @@
         <v>5.089380098815443</v>
       </c>
       <c r="B326" t="n">
-        <v>1500.000002759697</v>
+        <v>1120.00007785881</v>
       </c>
       <c r="C326" t="n">
-        <v>7335.97025079527</v>
+        <v>2001.952857709108</v>
       </c>
       <c r="D326" t="n">
-        <v>2771.548013085083</v>
+        <v>3414.231067011648</v>
       </c>
     </row>
     <row r="327">
@@ -5219,13 +5267,13 @@
         <v>5.105088062083392</v>
       </c>
       <c r="B327" t="n">
-        <v>1500.000000456751</v>
+        <v>1120.000075740774</v>
       </c>
       <c r="C327" t="n">
-        <v>7304.669478975326</v>
+        <v>1963.230708830412</v>
       </c>
       <c r="D327" t="n">
-        <v>2956.191704409661</v>
+        <v>3496.328703544366</v>
       </c>
     </row>
     <row r="328">
@@ -5233,13 +5281,13 @@
         <v>5.120796025351341</v>
       </c>
       <c r="B328" t="n">
-        <v>1500.000000107567</v>
+        <v>1120.000072927748</v>
       </c>
       <c r="C328" t="n">
-        <v>7273.357808555032</v>
+        <v>1925.510777462813</v>
       </c>
       <c r="D328" t="n">
-        <v>3138.916144337314</v>
+        <v>3575.225615528366</v>
       </c>
     </row>
     <row r="329">
@@ -5247,13 +5295,13 @@
         <v>5.13650398861929</v>
       </c>
       <c r="B329" t="n">
-        <v>1500.000000024809</v>
+        <v>1120.000072295828</v>
       </c>
       <c r="C329" t="n">
-        <v>7241.958547687717</v>
+        <v>1888.707456483562</v>
       </c>
       <c r="D329" t="n">
-        <v>3320.227068904302</v>
+        <v>3651.227200593826</v>
       </c>
     </row>
     <row r="330">
@@ -5261,13 +5309,13 @@
         <v>5.152211951887239</v>
       </c>
       <c r="B330" t="n">
-        <v>1500.000000099948</v>
+        <v>1120.000070722526</v>
       </c>
       <c r="C330" t="n">
-        <v>7210.397995412693</v>
+        <v>1852.742094641835</v>
       </c>
       <c r="D330" t="n">
-        <v>3500.579442091932</v>
+        <v>3724.599891771061</v>
       </c>
     </row>
     <row r="331">
@@ -5275,13 +5323,13 @@
         <v>5.167919915155188</v>
       </c>
       <c r="B331" t="n">
-        <v>1500.00000009953</v>
+        <v>1120.000068299303</v>
       </c>
       <c r="C331" t="n">
-        <v>7178.604630670835</v>
+        <v>1817.54205142932</v>
       </c>
       <c r="D331" t="n">
-        <v>3680.386937080466</v>
+        <v>3795.5776187972</v>
       </c>
     </row>
     <row r="332">
@@ -5289,13 +5337,13 @@
         <v>5.183627878423136</v>
       </c>
       <c r="B332" t="n">
-        <v>1500.000000002577</v>
+        <v>1120.000065168237</v>
       </c>
       <c r="C332" t="n">
-        <v>7146.508370744858</v>
+        <v>1783.039928230402</v>
       </c>
       <c r="D332" t="n">
-        <v>3860.029702062438</v>
+        <v>3864.367061767783</v>
       </c>
     </row>
     <row r="333">
@@ -5303,13 +5351,13 @@
         <v>5.199335841691085</v>
       </c>
       <c r="B333" t="n">
-        <v>1500.000008764637</v>
+        <v>1120.000061473519</v>
       </c>
       <c r="C333" t="n">
-        <v>7114.039815983126</v>
+        <v>1749.172895663947</v>
       </c>
       <c r="D333" t="n">
-        <v>4039.860775835455</v>
+        <v>3931.151891162252</v>
       </c>
     </row>
     <row r="334">
@@ -5317,13 +5365,13 @@
         <v>5.215043804959034</v>
       </c>
       <c r="B334" t="n">
-        <v>1500.000005475139</v>
+        <v>1120.000057528482</v>
       </c>
       <c r="C334" t="n">
-        <v>7081.130018226506</v>
+        <v>1715.882108407373</v>
       </c>
       <c r="D334" t="n">
-        <v>4220.211533666397</v>
+        <v>3996.096227256923</v>
       </c>
     </row>
     <row r="335">
@@ -5331,13 +5379,13 @@
         <v>5.230751768226983</v>
       </c>
       <c r="B335" t="n">
-        <v>1500.000046951669</v>
+        <v>1120.000053904504</v>
       </c>
       <c r="C335" t="n">
-        <v>7047.708843673408</v>
+        <v>1683.112192949034</v>
       </c>
       <c r="D335" t="n">
-        <v>4401.396056375876</v>
+        <v>4059.347484986326</v>
       </c>
     </row>
     <row r="336">
@@ -5345,13 +5393,13 @@
         <v>5.246459731494932</v>
       </c>
       <c r="B336" t="n">
-        <v>1500.000010099015</v>
+        <v>1120.000050095775</v>
       </c>
       <c r="C336" t="n">
-        <v>7013.70692084771</v>
+        <v>1650.810799458523</v>
       </c>
       <c r="D336" t="n">
-        <v>4583.715557183326</v>
+        <v>4121.038740312018</v>
       </c>
     </row>
     <row r="337">
@@ -5359,13 +5407,13 @@
         <v>5.262167694762881</v>
       </c>
       <c r="B337" t="n">
-        <v>1500.000039732839</v>
+        <v>1120.000046123705</v>
       </c>
       <c r="C337" t="n">
-        <v>6979.050774222393</v>
+        <v>1618.928194574814</v>
       </c>
       <c r="D337" t="n">
-        <v>4767.460832381434</v>
+        <v>4181.290683156572</v>
       </c>
     </row>
     <row r="338">
@@ -5373,13 +5421,13 @@
         <v>5.27787565803083</v>
       </c>
       <c r="B338" t="n">
-        <v>1500.000047875832</v>
+        <v>1120.000042073484</v>
       </c>
       <c r="C338" t="n">
-        <v>6943.53287908013</v>
+        <v>1587.416901762198</v>
       </c>
       <c r="D338" t="n">
-        <v>4951.243140120108</v>
+        <v>4240.213268881971</v>
       </c>
     </row>
     <row r="339">
@@ -5387,13 +5435,13 @@
         <v>5.293583621298779</v>
       </c>
       <c r="B339" t="n">
-        <v>1500.000011755754</v>
+        <v>1120.000038026402</v>
       </c>
       <c r="C339" t="n">
-        <v>6902.845383880996</v>
+        <v>1556.231374511127</v>
       </c>
       <c r="D339" t="n">
-        <v>5079.256548815421</v>
+        <v>4297.90711026236</v>
       </c>
     </row>
     <row r="340">
@@ -5401,13 +5449,13 @@
         <v>5.309291584566727</v>
       </c>
       <c r="B340" t="n">
-        <v>1500.000026068309</v>
+        <v>1120.000034052783</v>
       </c>
       <c r="C340" t="n">
-        <v>6861.626204329233</v>
+        <v>1525.327697467398</v>
       </c>
       <c r="D340" t="n">
-        <v>5207.272997866869</v>
+        <v>4354.464659282842</v>
       </c>
     </row>
     <row r="341">
@@ -5415,13 +5463,13 @@
         <v>5.324999547834676</v>
       </c>
       <c r="B341" t="n">
-        <v>1500.000051819542</v>
+        <v>1120.000030213777</v>
       </c>
       <c r="C341" t="n">
-        <v>6819.81020881177</v>
+        <v>1494.663310532078</v>
       </c>
       <c r="D341" t="n">
-        <v>5335.505696361616</v>
+        <v>4409.971216580654</v>
       </c>
     </row>
     <row r="342">
@@ -5429,13 +5477,13 @@
         <v>5.340707511102625</v>
       </c>
       <c r="B342" t="n">
-        <v>1500.000091146928</v>
+        <v>1120.000026646646</v>
       </c>
       <c r="C342" t="n">
-        <v>6777.329823852679</v>
+        <v>1464.19675133407</v>
       </c>
       <c r="D342" t="n">
-        <v>5464.160702945484</v>
+        <v>4464.505797918247</v>
       </c>
     </row>
     <row r="343">
@@ -5443,13 +5491,13 @@
         <v>5.356415474370574</v>
       </c>
       <c r="B343" t="n">
-        <v>1500.000023389849</v>
+        <v>1120.000023276916</v>
       </c>
       <c r="C343" t="n">
-        <v>6734.116062868785</v>
+        <v>1433.887413253804</v>
       </c>
       <c r="D343" t="n">
-        <v>5593.439409012964</v>
+        <v>4518.141885725609</v>
       </c>
     </row>
     <row r="344">
@@ -5457,13 +5505,13 @@
         <v>5.372123437638523</v>
       </c>
       <c r="B344" t="n">
-        <v>1500.000040230707</v>
+        <v>1120.000095390975</v>
       </c>
       <c r="C344" t="n">
-        <v>6690.094237124023</v>
+        <v>1403.695152474334</v>
       </c>
       <c r="D344" t="n">
-        <v>5723.538080068018</v>
+        <v>4570.947427651417</v>
       </c>
     </row>
     <row r="345">
@@ -5471,13 +5519,13 @@
         <v>5.387831400906472</v>
       </c>
       <c r="B345" t="n">
-        <v>1500.000067638174</v>
+        <v>1120.000083511204</v>
       </c>
       <c r="C345" t="n">
-        <v>6645.188595173262</v>
+        <v>1373.580733093641</v>
       </c>
       <c r="D345" t="n">
-        <v>5854.652009795011</v>
+        <v>4622.988074028694</v>
       </c>
     </row>
     <row r="346">
@@ -5485,13 +5533,13 @@
         <v>5.403539364174421</v>
       </c>
       <c r="B346" t="n">
-        <v>1500.000019912756</v>
+        <v>1120.000072431083</v>
       </c>
       <c r="C346" t="n">
-        <v>6599.319517575061</v>
+        <v>1343.504565784361</v>
       </c>
       <c r="D346" t="n">
-        <v>5986.975794272879</v>
+        <v>4674.323568258148</v>
       </c>
     </row>
     <row r="347">
@@ -5499,13 +5547,13 @@
         <v>5.41924732744237</v>
       </c>
       <c r="B347" t="n">
-        <v>1500.000038347577</v>
+        <v>1120.000062366153</v>
       </c>
       <c r="C347" t="n">
-        <v>6552.400983482319</v>
+        <v>1313.42721577021</v>
       </c>
       <c r="D347" t="n">
-        <v>6120.703312697814</v>
+        <v>4725.010998091799</v>
       </c>
     </row>
     <row r="348">
@@ -5513,13 +5561,13 @@
         <v>5.434955290710318</v>
       </c>
       <c r="B348" t="n">
-        <v>1500.000028091979</v>
+        <v>1120.000053452563</v>
       </c>
       <c r="C348" t="n">
-        <v>6516.48582098288</v>
+        <v>1283.308998250405</v>
       </c>
       <c r="D348" t="n">
-        <v>6182.719583717556</v>
+        <v>4775.104468769845</v>
       </c>
     </row>
     <row r="349">
@@ -5527,13 +5575,13 @@
         <v>5.450663253978267</v>
       </c>
       <c r="B349" t="n">
-        <v>1500.000032493433</v>
+        <v>1120.000046820662</v>
       </c>
       <c r="C349" t="n">
-        <v>6481.985493467462</v>
+        <v>1253.109757221473</v>
       </c>
       <c r="D349" t="n">
-        <v>6232.907185182452</v>
+        <v>4824.655443820613</v>
       </c>
     </row>
     <row r="350">
@@ -5541,13 +5589,13 @@
         <v>5.466371217246216</v>
       </c>
       <c r="B350" t="n">
-        <v>1500.000036964797</v>
+        <v>1120.00004060814</v>
       </c>
       <c r="C350" t="n">
-        <v>6447.140785959273</v>
+        <v>1222.788647076544</v>
       </c>
       <c r="D350" t="n">
-        <v>6281.8279130799</v>
+        <v>4873.71309727989</v>
       </c>
     </row>
     <row r="351">
@@ -5555,13 +5603,13 @@
         <v>5.482079180514165</v>
       </c>
       <c r="B351" t="n">
-        <v>1500.000041295908</v>
+        <v>1120.000036743811</v>
       </c>
       <c r="C351" t="n">
-        <v>6411.899129454026</v>
+        <v>1192.303887584774</v>
       </c>
       <c r="D351" t="n">
-        <v>6329.567258792573</v>
+        <v>4922.324537342259</v>
       </c>
     </row>
     <row r="352">
@@ -5569,13 +5617,13 @@
         <v>5.497787143782114</v>
       </c>
       <c r="B352" t="n">
-        <v>1500.000045431032</v>
+        <v>1120.000024758981</v>
       </c>
       <c r="C352" t="n">
-        <v>6376.205543734703</v>
+        <v>1163.22011408872</v>
       </c>
       <c r="D352" t="n">
-        <v>6376.205543734574</v>
+        <v>4961.709897489391</v>
       </c>
     </row>
     <row r="353">
@@ -5583,13 +5631,13 @@
         <v>5.513495107050063</v>
       </c>
       <c r="B353" t="n">
-        <v>1500.000041295908</v>
+        <v>1120.000092786695</v>
       </c>
       <c r="C353" t="n">
-        <v>6329.567258792717</v>
+        <v>1137.033150324904</v>
       </c>
       <c r="D353" t="n">
-        <v>6411.899129453916</v>
+        <v>4984.06524314665</v>
       </c>
     </row>
     <row r="354">
@@ -5597,13 +5645,13 @@
         <v>5.529203070318012</v>
       </c>
       <c r="B354" t="n">
-        <v>1500.000036964797</v>
+        <v>1120.000075499972</v>
       </c>
       <c r="C354" t="n">
-        <v>6281.82791308004</v>
+        <v>1110.710430817416</v>
       </c>
       <c r="D354" t="n">
-        <v>6447.140785959158</v>
+        <v>5006.151413740325</v>
       </c>
     </row>
     <row r="355">
@@ -5611,13 +5659,13 @@
         <v>5.544911033585961</v>
       </c>
       <c r="B355" t="n">
-        <v>1500.000032493433</v>
+        <v>1120.000060736158</v>
       </c>
       <c r="C355" t="n">
-        <v>6232.907185182607</v>
+        <v>1084.211415840113</v>
       </c>
       <c r="D355" t="n">
-        <v>6481.985493467349</v>
+        <v>5028.000898035509</v>
       </c>
     </row>
     <row r="356">
@@ -5625,13 +5673,13 @@
         <v>5.560618996853909</v>
       </c>
       <c r="B356" t="n">
-        <v>1500.000028091979</v>
+        <v>1120.000048166751</v>
       </c>
       <c r="C356" t="n">
-        <v>6182.719583717719</v>
+        <v>1057.494185984546</v>
       </c>
       <c r="D356" t="n">
-        <v>6516.485820982773</v>
+        <v>5049.64578927822</v>
       </c>
     </row>
     <row r="357">
@@ -5639,13 +5687,13 @@
         <v>5.576326960121858</v>
       </c>
       <c r="B357" t="n">
-        <v>1500.000038347577</v>
+        <v>1120.000037607642</v>
       </c>
       <c r="C357" t="n">
-        <v>6120.70331269823</v>
+        <v>1030.515049894436</v>
       </c>
       <c r="D357" t="n">
-        <v>6552.400983482175</v>
+        <v>5071.117053140042</v>
       </c>
     </row>
     <row r="358">
@@ -5653,13 +5701,13 @@
         <v>5.592034923389807</v>
       </c>
       <c r="B358" t="n">
-        <v>1500.000019912756</v>
+        <v>1120.000028865116</v>
       </c>
       <c r="C358" t="n">
-        <v>5986.97579427329</v>
+        <v>1003.228226231845</v>
       </c>
       <c r="D358" t="n">
-        <v>6599.319517574913</v>
+        <v>5092.444728914897</v>
       </c>
     </row>
     <row r="359">
@@ -5667,13 +5715,13 @@
         <v>5.607742886657756</v>
       </c>
       <c r="B359" t="n">
-        <v>1500.000067638174</v>
+        <v>1120.000021740615</v>
       </c>
       <c r="C359" t="n">
-        <v>5854.652009795411</v>
+        <v>975.5854938904878</v>
       </c>
       <c r="D359" t="n">
-        <v>6645.18859517312</v>
+        <v>5113.658118136746</v>
       </c>
     </row>
     <row r="360">
@@ -5681,13 +5729,13 @@
         <v>5.623450849925705</v>
       </c>
       <c r="B360" t="n">
-        <v>1500.000040230707</v>
+        <v>1120.000088532469</v>
       </c>
       <c r="C360" t="n">
-        <v>5723.538080068418</v>
+        <v>947.5357846420832</v>
       </c>
       <c r="D360" t="n">
-        <v>6690.094237123876</v>
+        <v>5134.785134633556</v>
       </c>
     </row>
     <row r="361">
@@ -5695,13 +5743,13 @@
         <v>5.639158813193654</v>
       </c>
       <c r="B361" t="n">
-        <v>1500.000023389849</v>
+        <v>1120.000085658993</v>
       </c>
       <c r="C361" t="n">
-        <v>5593.439409013365</v>
+        <v>919.3902109228352</v>
       </c>
       <c r="D361" t="n">
-        <v>6734.116062868648</v>
+        <v>5155.556820310025</v>
       </c>
     </row>
     <row r="362">
@@ -5709,13 +5757,13 @@
         <v>5.654866776461603</v>
       </c>
       <c r="B362" t="n">
-        <v>1500.000091146929</v>
+        <v>1120.000090773181</v>
       </c>
       <c r="C362" t="n">
-        <v>5464.160702945879</v>
+        <v>891.7737089979647</v>
       </c>
       <c r="D362" t="n">
-        <v>6777.32982385254</v>
+        <v>5175.470510041258</v>
       </c>
     </row>
     <row r="363">
@@ -5723,13 +5771,13 @@
         <v>5.670574739729552</v>
       </c>
       <c r="B363" t="n">
-        <v>1500.000051819542</v>
+        <v>1120.000096853634</v>
       </c>
       <c r="C363" t="n">
-        <v>5335.505696362012</v>
+        <v>864.6700594423965</v>
       </c>
       <c r="D363" t="n">
-        <v>6819.810208811646</v>
+        <v>5194.568346756745</v>
       </c>
     </row>
     <row r="364">
@@ -5737,13 +5785,13 @@
         <v>5.6862827029975</v>
       </c>
       <c r="B364" t="n">
-        <v>1500.000026068309</v>
+        <v>1120.000020056091</v>
       </c>
       <c r="C364" t="n">
-        <v>5207.27299786726</v>
+        <v>838.0507082402357</v>
       </c>
       <c r="D364" t="n">
-        <v>6861.626204329102</v>
+        <v>5212.900885328375</v>
       </c>
     </row>
     <row r="365">
@@ -5751,13 +5799,13 @@
         <v>5.701990666265449</v>
       </c>
       <c r="B365" t="n">
-        <v>1500.000011755754</v>
+        <v>1120.000021952326</v>
       </c>
       <c r="C365" t="n">
-        <v>5079.256548815818</v>
+        <v>811.8886120123152</v>
       </c>
       <c r="D365" t="n">
-        <v>6902.845383880864</v>
+        <v>5230.512059421793</v>
       </c>
     </row>
     <row r="366">
@@ -5765,13 +5813,13 @@
         <v>5.717698629533398</v>
       </c>
       <c r="B366" t="n">
-        <v>1500.000047875833</v>
+        <v>1120.000024186932</v>
       </c>
       <c r="C366" t="n">
-        <v>4951.243140120502</v>
+        <v>786.1582278237397</v>
       </c>
       <c r="D366" t="n">
-        <v>6943.532879079994</v>
+        <v>5247.445087132328</v>
       </c>
     </row>
     <row r="367">
@@ -5779,13 +5827,13 @@
         <v>5.733406592801347</v>
       </c>
       <c r="B367" t="n">
-        <v>1500.000039732839</v>
+        <v>1120.000026649645</v>
       </c>
       <c r="C367" t="n">
-        <v>4767.460832382007</v>
+        <v>760.8353233618699</v>
       </c>
       <c r="D367" t="n">
-        <v>6979.05077422228</v>
+        <v>5263.739139146688</v>
       </c>
     </row>
     <row r="368">
@@ -5793,13 +5841,13 @@
         <v>5.749114556069296</v>
       </c>
       <c r="B368" t="n">
-        <v>1500.000010099016</v>
+        <v>1120.000029257738</v>
       </c>
       <c r="C368" t="n">
-        <v>4583.715557183892</v>
+        <v>735.8968913137525</v>
       </c>
       <c r="D368" t="n">
-        <v>7013.706920847589</v>
+        <v>5279.430513612526</v>
       </c>
     </row>
     <row r="369">
@@ -5807,13 +5855,13 @@
         <v>5.764822519337245</v>
       </c>
       <c r="B369" t="n">
-        <v>1500.000046951668</v>
+        <v>1120.0000320227</v>
       </c>
       <c r="C369" t="n">
-        <v>4401.396056376439</v>
+        <v>711.3210537749961</v>
       </c>
       <c r="D369" t="n">
-        <v>7047.708843673307</v>
+        <v>5294.55288578249</v>
       </c>
     </row>
     <row r="370">
@@ -5821,13 +5869,13 @@
         <v>5.780530482605194</v>
       </c>
       <c r="B370" t="n">
-        <v>1500.00000547514</v>
+        <v>1120.000034960604</v>
       </c>
       <c r="C370" t="n">
-        <v>4220.211533666954</v>
+        <v>687.0869745447173</v>
       </c>
       <c r="D370" t="n">
-        <v>7081.130018226401</v>
+        <v>5309.137534085707</v>
       </c>
     </row>
     <row r="371">
@@ -5835,13 +5883,13 @@
         <v>5.796238445873143</v>
       </c>
       <c r="B371" t="n">
-        <v>1500.000008764637</v>
+        <v>1120.000038093348</v>
       </c>
       <c r="C371" t="n">
-        <v>4039.860775836009</v>
+        <v>663.1747784504819</v>
       </c>
       <c r="D371" t="n">
-        <v>7114.039815983037</v>
+        <v>5323.213542697182</v>
       </c>
     </row>
     <row r="372">
@@ -5849,13 +5897,13 @@
         <v>5.811946409141092</v>
       </c>
       <c r="B372" t="n">
-        <v>1500.000000002577</v>
+        <v>1120.000041450187</v>
       </c>
       <c r="C372" t="n">
-        <v>3860.029702062993</v>
+        <v>639.5654770108874</v>
       </c>
       <c r="D372" t="n">
-        <v>7146.508370744761</v>
+        <v>5336.807984170403</v>
       </c>
     </row>
     <row r="373">
@@ -5863,13 +5911,13 @@
         <v>5.82765437240904</v>
       </c>
       <c r="B373" t="n">
-        <v>1500.000000099529</v>
+        <v>1120.000045069594</v>
       </c>
       <c r="C373" t="n">
-        <v>3680.386937081015</v>
+        <v>616.2408998001954</v>
       </c>
       <c r="D373" t="n">
-        <v>7178.604630670747</v>
+        <v>5349.946084344457</v>
       </c>
     </row>
     <row r="374">
@@ -5877,13 +5925,13 @@
         <v>5.843362335676989</v>
       </c>
       <c r="B374" t="n">
-        <v>1500.000000099948</v>
+        <v>1120.000049006595</v>
       </c>
       <c r="C374" t="n">
-        <v>3500.579442092488</v>
+        <v>593.183630946277</v>
       </c>
       <c r="D374" t="n">
-        <v>7210.397995412592</v>
+        <v>5362.651371405258</v>
       </c>
     </row>
     <row r="375">
@@ -5891,13 +5939,13 @@
         <v>5.859070298944938</v>
       </c>
       <c r="B375" t="n">
-        <v>1500.000000024809</v>
+        <v>1120.000053358936</v>
       </c>
       <c r="C375" t="n">
-        <v>3320.227068904861</v>
+        <v>570.3769502514381</v>
       </c>
       <c r="D375" t="n">
-        <v>7241.958547687614</v>
+        <v>5374.945810651612</v>
       </c>
     </row>
     <row r="376">
@@ -5905,13 +5953,13 @@
         <v>5.874778262212887</v>
       </c>
       <c r="B376" t="n">
-        <v>1500.000000107567</v>
+        <v>1120.000058174799</v>
       </c>
       <c r="C376" t="n">
-        <v>3138.916144337878</v>
+        <v>547.8047785034501</v>
       </c>
       <c r="D376" t="n">
-        <v>7273.357808554932</v>
+        <v>5386.849928027596</v>
       </c>
     </row>
     <row r="377">
@@ -5919,13 +5967,13 @@
         <v>5.890486225480836</v>
       </c>
       <c r="B377" t="n">
-        <v>1500.000000456751</v>
+        <v>1120.000063508639</v>
       </c>
       <c r="C377" t="n">
-        <v>2956.191704410225</v>
+        <v>525.4516265186825</v>
       </c>
       <c r="D377" t="n">
-        <v>7304.669478975226</v>
+        <v>5398.382920702206</v>
       </c>
     </row>
     <row r="378">
@@ -5933,13 +5981,13 @@
         <v>5.906194188748785</v>
       </c>
       <c r="B378" t="n">
-        <v>1500.000002759698</v>
+        <v>1120.000069183556</v>
       </c>
       <c r="C378" t="n">
-        <v>2771.548013085653</v>
+        <v>503.3025476216852</v>
       </c>
       <c r="D378" t="n">
-        <v>7335.970250795167</v>
+        <v>5409.562760893404</v>
       </c>
     </row>
     <row r="379">
@@ -5947,13 +5995,13 @@
         <v>5.921902152016734</v>
       </c>
       <c r="B379" t="n">
-        <v>1500.000006883292</v>
+        <v>1120.000075176499</v>
       </c>
       <c r="C379" t="n">
-        <v>2584.416861608004</v>
+        <v>481.3430930774813</v>
       </c>
       <c r="D379" t="n">
-        <v>7367.340790255896</v>
+        <v>5420.406283530004</v>
       </c>
     </row>
     <row r="380">
@@ -5961,13 +6009,13 @@
         <v>5.937610115284683</v>
       </c>
       <c r="B380" t="n">
-        <v>1500.000011505503</v>
+        <v>1120.000081497273</v>
       </c>
       <c r="C380" t="n">
-        <v>2394.152970866351</v>
+        <v>459.5592703607576</v>
       </c>
       <c r="D380" t="n">
-        <v>7398.866832091761</v>
+        <v>5430.92927152732</v>
       </c>
     </row>
     <row r="381">
@@ -5975,13 +6023,13 @@
         <v>5.953318078552631</v>
       </c>
       <c r="B381" t="n">
-        <v>1500.000014814157</v>
+        <v>1120.000088157389</v>
       </c>
       <c r="C381" t="n">
-        <v>2200.015583398063</v>
+        <v>437.9375038832208</v>
       </c>
       <c r="D381" t="n">
-        <v>7430.640468914409</v>
+        <v>5441.146532693549</v>
       </c>
     </row>
     <row r="382">
@@ -5989,13 +6037,13 @@
         <v>5.96902604182058</v>
       </c>
       <c r="B382" t="n">
-        <v>1500.0000153316</v>
+        <v>1120.000095170802</v>
       </c>
       <c r="C382" t="n">
-        <v>2001.14498390092</v>
+        <v>416.4645979387067</v>
       </c>
       <c r="D382" t="n">
-        <v>7462.761692656866</v>
+        <v>5451.071969648485</v>
       </c>
     </row>
     <row r="383">
@@ -6003,13 +6051,13 @@
         <v>5.984734005088529</v>
       </c>
       <c r="B383" t="n">
-        <v>1500.000012641719</v>
+        <v>1120.000025229389</v>
       </c>
       <c r="C383" t="n">
-        <v>1796.532187851264</v>
+        <v>395.1277114004248</v>
       </c>
       <c r="D383" t="n">
-        <v>7495.340266700728</v>
+        <v>5460.719522820051</v>
       </c>
     </row>
     <row r="384">
@@ -6017,13 +6065,13 @@
         <v>6.000441968356478</v>
       </c>
       <c r="B384" t="n">
-        <v>1500.000007791474</v>
+        <v>1120.000099953824</v>
       </c>
       <c r="C384" t="n">
-        <v>1584.979302787763</v>
+        <v>373.9142768894981</v>
       </c>
       <c r="D384" t="n">
-        <v>7528.498033905932</v>
+        <v>5470.09895158486</v>
       </c>
     </row>
     <row r="385">
@@ -6031,13 +6079,13 @@
         <v>6.016149931624427</v>
       </c>
       <c r="B385" t="n">
-        <v>1500.000003012733</v>
+        <v>1120.000095989641</v>
       </c>
       <c r="C385" t="n">
-        <v>1365.046964695483</v>
+        <v>352.8120630103477</v>
       </c>
       <c r="D385" t="n">
-        <v>7562.371805102703</v>
+        <v>5479.224344890366</v>
       </c>
     </row>
     <row r="386">
@@ -6045,13 +6093,13 @@
         <v>6.031857894892376</v>
       </c>
       <c r="B386" t="n">
-        <v>1500.000000418558</v>
+        <v>1120.000092231267</v>
       </c>
       <c r="C386" t="n">
-        <v>1134.983566585594</v>
+        <v>331.8090498512356</v>
       </c>
       <c r="D386" t="n">
-        <v>7597.117027601733</v>
+        <v>5488.105675777375</v>
       </c>
     </row>
     <row r="387">
@@ -6059,13 +6107,13 @@
         <v>6.047565858160325</v>
       </c>
       <c r="B387" t="n">
-        <v>1500.00000026306</v>
+        <v>1120.00008892538</v>
       </c>
       <c r="C387" t="n">
-        <v>892.6283654614124</v>
+        <v>310.8934479317537</v>
       </c>
       <c r="D387" t="n">
-        <v>7632.912503495738</v>
+        <v>5496.753176653001</v>
       </c>
     </row>
     <row r="388">
@@ -6073,13 +6121,13 @@
         <v>6.063273821428274</v>
       </c>
       <c r="B388" t="n">
-        <v>1500.000001961308</v>
+        <v>1120.000086401903</v>
       </c>
       <c r="C388" t="n">
-        <v>635.2763492029412</v>
+        <v>290.0536602943333</v>
       </c>
       <c r="D388" t="n">
-        <v>7669.96651768562</v>
+        <v>5505.176485719736</v>
       </c>
     </row>
     <row r="389">
@@ -6087,13 +6135,13 @@
         <v>6.078981784696222</v>
       </c>
       <c r="B389" t="n">
-        <v>1500.000030864456</v>
+        <v>1120.000084924272</v>
       </c>
       <c r="C389" t="n">
-        <v>355.6734422151794</v>
+        <v>269.2782554776327</v>
       </c>
       <c r="D389" t="n">
-        <v>7706.777983120272</v>
+        <v>5513.384686801908</v>
       </c>
     </row>
     <row r="390">
@@ -6101,13 +6149,13 @@
         <v>6.094689747964171</v>
       </c>
       <c r="B390" t="n">
-        <v>1500.000000439461</v>
+        <v>1120.000083355861</v>
       </c>
       <c r="C390" t="n">
-        <v>67.32440858743823</v>
+        <v>248.5559413740684</v>
       </c>
       <c r="D390" t="n">
-        <v>7741.794759589637</v>
+        <v>5521.386359552855</v>
       </c>
     </row>
     <row r="391">
@@ -6115,13 +6163,13 @@
         <v>6.11039771123212</v>
       </c>
       <c r="B391" t="n">
-        <v>1500.000000935079</v>
+        <v>1120.000081403733</v>
       </c>
       <c r="C391" t="n">
-        <v>-217.4471373137504</v>
+        <v>227.8755394198963</v>
       </c>
       <c r="D391" t="n">
-        <v>7773.503811201748</v>
+        <v>5529.189586274366</v>
       </c>
     </row>
     <row r="392">
@@ -6129,13 +6177,13 @@
         <v>6.126105674500069</v>
       </c>
       <c r="B392" t="n">
-        <v>1500.000001336984</v>
+        <v>1120.000079089011</v>
       </c>
       <c r="C392" t="n">
-        <v>-498.8838717281488</v>
+        <v>207.2259595959252</v>
       </c>
       <c r="D392" t="n">
-        <v>7801.973670070078</v>
+        <v>5536.801987683527</v>
       </c>
     </row>
     <row r="393">
@@ -6143,13 +6191,13 @@
         <v>6.141813637768018</v>
       </c>
       <c r="B393" t="n">
-        <v>1500.000001372297</v>
+        <v>1120.000076350006</v>
       </c>
       <c r="C393" t="n">
-        <v>-777.2169779103535</v>
+        <v>186.5961758064875</v>
       </c>
       <c r="D393" t="n">
-        <v>7827.265403790931</v>
+        <v>5544.230754835889</v>
       </c>
     </row>
     <row r="394">
@@ -6157,13 +6205,13 @@
         <v>6.157521601035967</v>
       </c>
       <c r="B394" t="n">
-        <v>1500.000000983725</v>
+        <v>1120.00007317375</v>
       </c>
       <c r="C394" t="n">
-        <v>-1052.667346540849</v>
+        <v>165.9752014992955</v>
       </c>
       <c r="D394" t="n">
-        <v>7849.433258566736</v>
+        <v>5551.482672917988</v>
       </c>
     </row>
     <row r="395">
@@ -6171,13 +6219,13 @@
         <v>6.173229564303916</v>
       </c>
       <c r="B395" t="n">
-        <v>1500.000069617145</v>
+        <v>1120.000069879344</v>
       </c>
       <c r="C395" t="n">
-        <v>-1325.446055758269</v>
+        <v>145.3520654513401</v>
       </c>
       <c r="D395" t="n">
-        <v>7868.524024750933</v>
+        <v>5558.564141364011</v>
       </c>
     </row>
     <row r="396">
@@ -6185,13 +6233,13 @@
         <v>6.188937527571865</v>
       </c>
       <c r="B396" t="n">
-        <v>1500.000032888098</v>
+        <v>1120.000066910656</v>
       </c>
       <c r="C396" t="n">
-        <v>-1595.757240870839</v>
+        <v>124.7157876393388</v>
       </c>
       <c r="D396" t="n">
-        <v>7884.581153533052</v>
+        <v>5565.481197737931</v>
       </c>
     </row>
     <row r="397">
@@ -6199,13 +6247,13 @@
         <v>6.204645490839813</v>
       </c>
       <c r="B397" t="n">
-        <v>1500.000018378195</v>
+        <v>1120.000064768711</v>
       </c>
       <c r="C397" t="n">
-        <v>-1863.79536169164</v>
+        <v>104.0553550320706</v>
       </c>
       <c r="D397" t="n">
-        <v>7897.638111436326</v>
+        <v>5572.239538376825</v>
       </c>
     </row>
     <row r="398">
@@ -6213,13 +6261,13 @@
         <v>6.220353454107762</v>
       </c>
       <c r="B398" t="n">
-        <v>1500.000009225679</v>
+        <v>1120.000064483961</v>
       </c>
       <c r="C398" t="n">
-        <v>-2129.748795211632</v>
+        <v>83.35969718205394</v>
       </c>
       <c r="D398" t="n">
-        <v>7907.724104203346</v>
+        <v>5578.844531397085</v>
       </c>
     </row>
     <row r="399">
@@ -6227,13 +6275,13 @@
         <v>6.236061417375711</v>
       </c>
       <c r="B399" t="n">
-        <v>1500.000003970959</v>
+        <v>1120.00006554596</v>
       </c>
       <c r="C399" t="n">
-        <v>-2393.799476958749</v>
+        <v>62.61766159269217</v>
       </c>
       <c r="D399" t="n">
-        <v>7914.862200671784</v>
+        <v>5585.301257096242</v>
       </c>
     </row>
     <row r="400">
@@ -6241,13 +6289,13 @@
         <v>6.25176938064366</v>
       </c>
       <c r="B400" t="n">
-        <v>1500.00000134524</v>
+        <v>1120.000068792192</v>
       </c>
       <c r="C400" t="n">
-        <v>-2656.123620039953</v>
+        <v>41.81798849931019</v>
       </c>
       <c r="D400" t="n">
-        <v>7919.069618533341</v>
+        <v>5591.614490890798</v>
       </c>
     </row>
     <row r="401">
@@ -6255,13 +6303,13 @@
         <v>6.267477343911609</v>
       </c>
       <c r="B401" t="n">
-        <v>1500.000000297805</v>
+        <v>1120.000076496371</v>
       </c>
       <c r="C401" t="n">
-        <v>-2916.892294120627</v>
+        <v>20.94928524775708</v>
       </c>
       <c r="D401" t="n">
-        <v>7920.357795225341</v>
+        <v>5597.788716800483</v>
       </c>
     </row>
     <row r="402">
@@ -6269,17 +6317,17 @@
         <v>6.283185307179558</v>
       </c>
       <c r="B402" t="n">
-        <v>1500.000025472763</v>
+        <v>1120.000090526166</v>
       </c>
       <c r="C402" t="n">
-        <v>-3176.271795117573</v>
+        <v>3.834377048676851e-11</v>
       </c>
       <c r="D402" t="n">
-        <v>7918.732116180063</v>
+        <v>5603.828161679114</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>